--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_10_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_10_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>864979.3035428892</v>
+        <v>829806.8792706103</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6466196.469667655</v>
+        <v>6466196.469667658</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7316738.691300132</v>
+        <v>7316738.691300131</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8619718.220812384</v>
+        <v>8619718.220812382</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,55 +667,55 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>10.00967878293136</v>
+      </c>
+      <c r="G2" t="n">
+        <v>109.5407761182466</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="G2" t="n">
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -746,16 +746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.99451525021637</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>60.36402868517428</v>
+      </c>
+      <c r="V3" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="Y3" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -822,61 +822,61 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>38.15196793284785</v>
+      </c>
+      <c r="R4" t="n">
+        <v>81.39848696833005</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>119.5504549011779</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="V4" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,16 +898,16 @@
         <v>135.7293992974318</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>107.607508220824</v>
+        <v>17.87560458171883</v>
       </c>
       <c r="G5" t="n">
         <v>11.94294668035388</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>60.36402868517428</v>
       </c>
       <c r="U6" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>21.94182076836087</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>21.94182076836089</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="J7" t="n">
         <v>59.456666199969</v>
@@ -1101,13 +1101,13 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>135.7293992974318</v>
+        <v>7.865925798787468</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>135.7293992974318</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
-        <v>107.607508220824</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>135.7293992974318</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1223,13 +1223,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>51.85199244433831</v>
       </c>
       <c r="I9" t="n">
         <v>67.69846245683961</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>40.12721019528855</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
     </row>
     <row r="10">
@@ -1296,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>21.94182076836087</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="F10" t="n">
-        <v>60.09378870120852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>135.7293992974318</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>63.759573987308</v>
       </c>
       <c r="E11" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F11" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4511937875116</v>
       </c>
       <c r="H11" t="n">
-        <v>55.67538706111149</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>113.5782234019879</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>215.5852085178816</v>
       </c>
       <c r="U11" t="n">
-        <v>252.2171426917185</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="12">
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.63060621289001</v>
+        <v>9.63060621288956</v>
       </c>
       <c r="S12" t="n">
         <v>136.4460543021009</v>
@@ -1539,19 +1539,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5614021535269</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.9031536195436</v>
+        <v>151.8295759096918</v>
       </c>
       <c r="I13" t="n">
-        <v>122.6378788030416</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.14783244424505</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>199.9112229863294</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>181.2485881379843</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1612,22 +1612,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E14" t="n">
-        <v>373.1599053319778</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.4511937875116</v>
+        <v>200.9420982394286</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>314.2156473448423</v>
       </c>
       <c r="I14" t="n">
-        <v>113.5782234019879</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>151.3633665703049</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>215.5852085178816</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>358.909580840975</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="15">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.63060621289001</v>
+        <v>9.63060621288956</v>
       </c>
       <c r="S15" t="n">
         <v>136.4460543021009</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>138.6922892565221</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>151.8295759096918</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>76.81601453713036</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>284.2818380798474</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="17">
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C17" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>96.00092870109781</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.4511937875116</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>151.3633665703049</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>215.5852085178816</v>
       </c>
       <c r="U17" t="n">
-        <v>140.9202146155735</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>378.2098390737216</v>
@@ -1943,7 +1943,7 @@
         <v>91.22995135355991</v>
       </c>
       <c r="I18" t="n">
-        <v>40.21801691965153</v>
+        <v>40.21801691965034</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.5614021535269</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>151.8295759096918</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>39.45473731963958</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9880725035529</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>284.2818380798474</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>146.3247759916559</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="20">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>369.0957251250487</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>93.15204424368939</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>62.0539389550262</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y20" t="n">
         <v>389.6064368699203</v>
@@ -2238,31 +2238,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
-        <v>20.6755603415443</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.5614021535269</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>151.8295759096918</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>122.6378788030416</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.14783244424505</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>117.9391916088222</v>
       </c>
       <c r="S22" t="n">
-        <v>199.9112229863294</v>
+        <v>177.7657405954831</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>227.9880725035529</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>332.6265403683387</v>
       </c>
       <c r="D23" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
-        <v>364.1957829903201</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>314.2156473448423</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="24">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>47.62800260354675</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.53158683686326</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>199.9112229863294</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="26">
@@ -2557,19 +2557,19 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.4511937875116</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>51.39532632150863</v>
+        <v>151.3633665703049</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>215.5852085178816</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>136.9479065105495</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="27">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>102.9699012198163</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>38.50287035961451</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>284.2818380798474</v>
       </c>
       <c r="V28" t="n">
         <v>258.1279513971616</v>
@@ -2781,7 +2781,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y28" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,16 +2797,16 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.4511937875116</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>151.3633665703049</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>215.5852085178816</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>252.2171426917185</v>
       </c>
       <c r="V29" t="n">
-        <v>41.20918203743491</v>
+        <v>253.9219069370805</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>39.45473731963958</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>199.9112229863294</v>
       </c>
       <c r="T31" t="n">
         <v>227.9880725035529</v>
       </c>
       <c r="U31" t="n">
-        <v>284.2818380798474</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>112.7576706364318</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="32">
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>390.8378626949542</v>
@@ -3046,10 +3046,10 @@
         <v>410.4511937875116</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>314.2156473448423</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>113.5782234019879</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>151.3633665703049</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>215.5852085178816</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>252.2171426917185</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>131.562843839108</v>
       </c>
       <c r="W32" t="n">
-        <v>41.20918203743446</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>39.45473731964003</v>
+        <v>151.8295759096918</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>122.6378788030416</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>199.9112229863294</v>
       </c>
       <c r="T34" t="n">
         <v>227.9880725035529</v>
       </c>
       <c r="U34" t="n">
-        <v>284.2818380798474</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W34" t="n">
-        <v>283.2948374677749</v>
+        <v>132.6527351681991</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F35" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>225.8666330939043</v>
+        <v>266.0275821839218</v>
       </c>
       <c r="H35" t="n">
-        <v>314.2156473448423</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>252.2171426917185</v>
       </c>
       <c r="V35" t="n">
         <v>333.6094813630181</v>
@@ -3331,7 +3331,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>151.8295759096918</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9880725035529</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>284.2818380798474</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>258.1279513971616</v>
@@ -3489,7 +3489,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X37" t="n">
-        <v>39.45473731964003</v>
+        <v>66.6340827552972</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>266.0275821839218</v>
+        <v>410.4511937875116</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3556,16 +3556,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>215.5852085178816</v>
       </c>
       <c r="U38" t="n">
-        <v>252.2171426917185</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>358.909580840975</v>
+        <v>194.6242806514015</v>
       </c>
       <c r="X38" t="n">
         <v>378.2098390737216</v>
@@ -3602,7 +3602,7 @@
         <v>91.22995135355991</v>
       </c>
       <c r="I39" t="n">
-        <v>40.21801691965034</v>
+        <v>40.21801691965153</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.63060621289001</v>
+        <v>9.630606212888843</v>
       </c>
       <c r="S39" t="n">
         <v>136.4460543021009</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.5614021535269</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>199.9112229863294</v>
       </c>
       <c r="T40" t="n">
-        <v>144.8049310201514</v>
+        <v>227.9880725035529</v>
       </c>
       <c r="U40" t="n">
         <v>284.2818380798474</v>
       </c>
       <c r="V40" t="n">
-        <v>258.1279513971616</v>
+        <v>91.76702224167833</v>
       </c>
       <c r="W40" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>117.0966388154318</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>410.4511937875116</v>
+        <v>278.6138477799198</v>
       </c>
       <c r="H41" t="n">
         <v>314.2156473448423</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>151.3633665703049</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>215.5852085178816</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>252.2171426917185</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="42">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.9198098429365</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.5614021535269</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>151.8295759096918</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>122.6378788030416</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>117.9391916088222</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9880725035529</v>
+        <v>215.3037300254768</v>
       </c>
       <c r="U43" t="n">
-        <v>232.2249019561761</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F44" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.4511937875116</v>
+        <v>373.0828776075459</v>
       </c>
       <c r="H44" t="n">
         <v>314.2156473448423</v>
       </c>
       <c r="I44" t="n">
-        <v>113.5782234019879</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,16 +4033,16 @@
         <v>215.5852085178816</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>252.2171426917185</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W44" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X44" t="n">
-        <v>25.60516426196701</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.63060621289001</v>
+        <v>9.630606212888843</v>
       </c>
       <c r="S45" t="n">
         <v>136.4460543021009</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>150.4889240962943</v>
@@ -4152,10 +4152,10 @@
         <v>166.5614021535269</v>
       </c>
       <c r="H46" t="n">
-        <v>123.960463012687</v>
+        <v>151.8295759096918</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>122.6378788030416</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>117.9391916088222</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>199.9112229863294</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>32.82339278578963</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.159561936012</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="C2" t="n">
-        <v>422.159561936012</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="D2" t="n">
-        <v>422.159561936012</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="E2" t="n">
-        <v>285.0591586052728</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="F2" t="n">
+        <v>258.6060038788232</v>
+      </c>
+      <c r="G2" t="n">
         <v>147.9587552745337</v>
       </c>
-      <c r="G2" t="n">
-        <v>10.85835194379454</v>
-      </c>
       <c r="H2" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="I2" t="n">
         <v>10.85835194379454</v>
       </c>
       <c r="J2" t="n">
-        <v>82.85689621660021</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K2" t="n">
-        <v>82.85689621660021</v>
+        <v>145.230457248252</v>
       </c>
       <c r="L2" t="n">
-        <v>82.85689621660021</v>
+        <v>145.230457248252</v>
       </c>
       <c r="M2" t="n">
-        <v>217.2290015210577</v>
+        <v>279.6025625527094</v>
       </c>
       <c r="N2" t="n">
-        <v>351.6011068255151</v>
+        <v>279.6025625527094</v>
       </c>
       <c r="O2" t="n">
-        <v>448.4853435031901</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="P2" t="n">
-        <v>448.4853435031901</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q2" t="n">
         <v>542.9175971897271</v>
@@ -4357,25 +4357,25 @@
         <v>542.9175971897271</v>
       </c>
       <c r="S2" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="T2" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="U2" t="n">
-        <v>542.9175971897271</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="V2" t="n">
-        <v>542.9175971897271</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="W2" t="n">
-        <v>542.9175971897271</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="X2" t="n">
-        <v>542.9175971897271</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="Y2" t="n">
-        <v>542.9175971897271</v>
+        <v>268.7167905282488</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>268.7167905282488</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C3" t="n">
-        <v>268.7167905282488</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D3" t="n">
-        <v>268.7167905282488</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E3" t="n">
-        <v>245.4900074472222</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F3" t="n">
-        <v>110.7962093970965</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G3" t="n">
-        <v>110.7962093970965</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H3" t="n">
         <v>10.85835194379454</v>
@@ -4409,19 +4409,19 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J3" t="n">
-        <v>10.85835194379454</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="K3" t="n">
-        <v>145.230457248252</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="L3" t="n">
-        <v>274.1733865808121</v>
+        <v>339.8567090858156</v>
       </c>
       <c r="M3" t="n">
-        <v>274.1733865808121</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="N3" t="n">
-        <v>274.1733865808121</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="O3" t="n">
         <v>408.5454918852696</v>
@@ -4433,28 +4433,28 @@
         <v>542.9175971897271</v>
       </c>
       <c r="R3" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="S3" t="n">
-        <v>405.8171938589879</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="T3" t="n">
-        <v>405.8171938589879</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="U3" t="n">
-        <v>405.8171938589879</v>
+        <v>422.159561936012</v>
       </c>
       <c r="V3" t="n">
-        <v>405.8171938589879</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="W3" t="n">
-        <v>405.8171938589879</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="X3" t="n">
-        <v>405.8171938589879</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="Y3" t="n">
-        <v>268.7167905282488</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>405.8171938589879</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="C4" t="n">
-        <v>405.8171938589879</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="D4" t="n">
-        <v>268.7167905282488</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="E4" t="n">
-        <v>268.7167905282488</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="F4" t="n">
-        <v>131.6163871975096</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="G4" t="n">
-        <v>131.6163871975096</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="H4" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I4" t="n">
         <v>10.85835194379454</v>
@@ -4509,31 +4509,31 @@
         <v>542.9175971897271</v>
       </c>
       <c r="Q4" t="n">
-        <v>542.9175971897271</v>
+        <v>504.3802558434161</v>
       </c>
       <c r="R4" t="n">
-        <v>542.9175971897271</v>
+        <v>422.159561936012</v>
       </c>
       <c r="S4" t="n">
-        <v>542.9175971897271</v>
+        <v>422.159561936012</v>
       </c>
       <c r="T4" t="n">
-        <v>542.9175971897271</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="U4" t="n">
-        <v>542.9175971897271</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="V4" t="n">
-        <v>405.8171938589879</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="W4" t="n">
-        <v>405.8171938589879</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="X4" t="n">
-        <v>405.8171938589879</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="Y4" t="n">
-        <v>405.8171938589879</v>
+        <v>147.9587552745337</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>405.8171938589879</v>
+        <v>315.1789073548413</v>
       </c>
       <c r="C5" t="n">
-        <v>268.7167905282488</v>
+        <v>315.1789073548413</v>
       </c>
       <c r="D5" t="n">
-        <v>268.7167905282488</v>
+        <v>315.1789073548413</v>
       </c>
       <c r="E5" t="n">
-        <v>268.7167905282488</v>
+        <v>178.0785040241021</v>
       </c>
       <c r="F5" t="n">
         <v>160.0223377799417</v>
@@ -4567,52 +4567,52 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J5" t="n">
-        <v>10.85835194379454</v>
+        <v>82.85689621660021</v>
       </c>
       <c r="K5" t="n">
-        <v>10.85835194379454</v>
+        <v>217.2290015210577</v>
       </c>
       <c r="L5" t="n">
-        <v>10.85835194379454</v>
+        <v>351.6011068255151</v>
       </c>
       <c r="M5" t="n">
-        <v>145.230457248252</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="N5" t="n">
-        <v>179.7411328942751</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="O5" t="n">
-        <v>314.1132381987326</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="P5" t="n">
-        <v>448.4853435031901</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q5" t="n">
         <v>542.9175971897271</v>
       </c>
       <c r="R5" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="S5" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="T5" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="U5" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="V5" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="W5" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="X5" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="Y5" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855804</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.85835194379454</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="C6" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="D6" t="n">
         <v>10.85835194379454</v>
@@ -4646,19 +4646,19 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J6" t="n">
-        <v>10.85835194379454</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="K6" t="n">
-        <v>10.85835194379454</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="L6" t="n">
-        <v>10.85835194379454</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="M6" t="n">
-        <v>145.230457248252</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="N6" t="n">
-        <v>274.1733865808121</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="O6" t="n">
         <v>274.1733865808121</v>
@@ -4670,28 +4670,28 @@
         <v>542.9175971897271</v>
       </c>
       <c r="R6" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="S6" t="n">
-        <v>405.8171938589879</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="T6" t="n">
-        <v>405.8171938589879</v>
+        <v>422.159561936012</v>
       </c>
       <c r="U6" t="n">
-        <v>268.7167905282488</v>
+        <v>422.159561936012</v>
       </c>
       <c r="V6" t="n">
-        <v>131.6163871975096</v>
+        <v>422.159561936012</v>
       </c>
       <c r="W6" t="n">
-        <v>10.85835194379454</v>
+        <v>422.159561936012</v>
       </c>
       <c r="X6" t="n">
-        <v>10.85835194379454</v>
+        <v>422.159561936012</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.85835194379454</v>
+        <v>422.159561936012</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>93.07904585119849</v>
+        <v>482.2168005218393</v>
       </c>
       <c r="C7" t="n">
-        <v>93.07904585119849</v>
+        <v>345.1163971911002</v>
       </c>
       <c r="D7" t="n">
-        <v>93.07904585119849</v>
+        <v>208.015993860361</v>
       </c>
       <c r="E7" t="n">
-        <v>93.07904585119849</v>
+        <v>208.015993860361</v>
       </c>
       <c r="F7" t="n">
-        <v>93.07904585119849</v>
+        <v>208.015993860361</v>
       </c>
       <c r="G7" t="n">
-        <v>93.07904585119849</v>
+        <v>208.015993860361</v>
       </c>
       <c r="H7" t="n">
-        <v>93.07904585119849</v>
+        <v>208.015993860361</v>
       </c>
       <c r="I7" t="n">
         <v>70.91559052962182</v>
@@ -4749,28 +4749,28 @@
         <v>504.380255843416</v>
       </c>
       <c r="R7" t="n">
-        <v>367.2798525126768</v>
+        <v>504.380255843416</v>
       </c>
       <c r="S7" t="n">
-        <v>230.1794491819377</v>
+        <v>504.380255843416</v>
       </c>
       <c r="T7" t="n">
-        <v>93.07904585119849</v>
+        <v>504.380255843416</v>
       </c>
       <c r="U7" t="n">
-        <v>93.07904585119849</v>
+        <v>504.380255843416</v>
       </c>
       <c r="V7" t="n">
-        <v>93.07904585119849</v>
+        <v>504.380255843416</v>
       </c>
       <c r="W7" t="n">
-        <v>93.07904585119849</v>
+        <v>504.380255843416</v>
       </c>
       <c r="X7" t="n">
-        <v>93.07904585119849</v>
+        <v>504.380255843416</v>
       </c>
       <c r="Y7" t="n">
-        <v>93.07904585119849</v>
+        <v>504.380255843416</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>405.817193858988</v>
+        <v>170.1331244293673</v>
       </c>
       <c r="C8" t="n">
-        <v>405.817193858988</v>
+        <v>170.1331244293673</v>
       </c>
       <c r="D8" t="n">
-        <v>405.817193858988</v>
+        <v>170.1331244293673</v>
       </c>
       <c r="E8" t="n">
-        <v>405.817193858988</v>
+        <v>170.1331244293673</v>
       </c>
       <c r="F8" t="n">
-        <v>268.7167905282488</v>
+        <v>160.0223377799417</v>
       </c>
       <c r="G8" t="n">
-        <v>256.6532080228408</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="H8" t="n">
-        <v>147.9587552745338</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="I8" t="n">
-        <v>10.85835194379455</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J8" t="n">
-        <v>10.85835194379455</v>
+        <v>45.36902758981768</v>
       </c>
       <c r="K8" t="n">
-        <v>10.85835194379455</v>
+        <v>45.36902758981768</v>
       </c>
       <c r="L8" t="n">
-        <v>139.8012812763548</v>
+        <v>45.36902758981768</v>
       </c>
       <c r="M8" t="n">
-        <v>274.1733865808123</v>
+        <v>179.7411328942751</v>
       </c>
       <c r="N8" t="n">
-        <v>408.5454918852698</v>
+        <v>314.1132381987326</v>
       </c>
       <c r="O8" t="n">
-        <v>542.9175971897273</v>
+        <v>448.4853435031901</v>
       </c>
       <c r="P8" t="n">
-        <v>542.9175971897273</v>
+        <v>448.4853435031901</v>
       </c>
       <c r="Q8" t="n">
-        <v>542.9175971897273</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="R8" t="n">
-        <v>542.9175971897273</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="S8" t="n">
-        <v>542.9175971897273</v>
+        <v>315.1789073548413</v>
       </c>
       <c r="T8" t="n">
-        <v>542.9175971897273</v>
+        <v>315.1789073548413</v>
       </c>
       <c r="U8" t="n">
-        <v>542.9175971897273</v>
+        <v>315.1789073548413</v>
       </c>
       <c r="V8" t="n">
-        <v>542.9175971897273</v>
+        <v>315.1789073548413</v>
       </c>
       <c r="W8" t="n">
-        <v>542.9175971897273</v>
+        <v>315.1789073548413</v>
       </c>
       <c r="X8" t="n">
-        <v>542.9175971897273</v>
+        <v>178.0785040241021</v>
       </c>
       <c r="Y8" t="n">
-        <v>542.9175971897273</v>
+        <v>178.0785040241021</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>442.6007927338766</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="C9" t="n">
-        <v>442.6007927338766</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="D9" t="n">
-        <v>442.6007927338766</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="E9" t="n">
-        <v>442.6007927338766</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="F9" t="n">
-        <v>307.9069946837509</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="G9" t="n">
-        <v>179.1784947070355</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="H9" t="n">
         <v>79.24063725373355</v>
       </c>
       <c r="I9" t="n">
-        <v>10.85835194379455</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J9" t="n">
-        <v>71.1124984769007</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="K9" t="n">
-        <v>205.4846037813582</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="L9" t="n">
-        <v>205.4846037813582</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="M9" t="n">
-        <v>205.4846037813582</v>
+        <v>339.8567090858156</v>
       </c>
       <c r="N9" t="n">
-        <v>205.4846037813582</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="O9" t="n">
-        <v>339.8567090858157</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="P9" t="n">
-        <v>474.2288143902732</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q9" t="n">
-        <v>542.9175971897273</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="R9" t="n">
-        <v>483.1333282846731</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S9" t="n">
-        <v>442.6007927338766</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="T9" t="n">
-        <v>442.6007927338766</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="U9" t="n">
-        <v>442.6007927338766</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="V9" t="n">
-        <v>442.6007927338766</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="W9" t="n">
-        <v>442.6007927338766</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="X9" t="n">
-        <v>442.6007927338766</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="Y9" t="n">
-        <v>442.6007927338766</v>
+        <v>268.7167905282488</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>542.917597189727</v>
+        <v>367.2798525126768</v>
       </c>
       <c r="C10" t="n">
-        <v>542.917597189727</v>
+        <v>367.2798525126768</v>
       </c>
       <c r="D10" t="n">
-        <v>542.917597189727</v>
+        <v>345.1163971911002</v>
       </c>
       <c r="E10" t="n">
-        <v>542.917597189727</v>
+        <v>208.015993860361</v>
       </c>
       <c r="F10" t="n">
-        <v>482.2168005218396</v>
+        <v>208.015993860361</v>
       </c>
       <c r="G10" t="n">
-        <v>345.1163971911003</v>
+        <v>208.015993860361</v>
       </c>
       <c r="H10" t="n">
         <v>208.015993860361</v>
@@ -4962,7 +4962,7 @@
         <v>70.91559052962182</v>
       </c>
       <c r="J10" t="n">
-        <v>10.85835194379455</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K10" t="n">
         <v>44.46253968843796</v>
@@ -4983,31 +4983,31 @@
         <v>542.917597189727</v>
       </c>
       <c r="Q10" t="n">
-        <v>542.917597189727</v>
+        <v>504.380255843416</v>
       </c>
       <c r="R10" t="n">
-        <v>542.917597189727</v>
+        <v>367.2798525126768</v>
       </c>
       <c r="S10" t="n">
-        <v>542.917597189727</v>
+        <v>367.2798525126768</v>
       </c>
       <c r="T10" t="n">
-        <v>542.917597189727</v>
+        <v>367.2798525126768</v>
       </c>
       <c r="U10" t="n">
-        <v>542.917597189727</v>
+        <v>367.2798525126768</v>
       </c>
       <c r="V10" t="n">
-        <v>542.917597189727</v>
+        <v>367.2798525126768</v>
       </c>
       <c r="W10" t="n">
-        <v>542.917597189727</v>
+        <v>367.2798525126768</v>
       </c>
       <c r="X10" t="n">
-        <v>542.917597189727</v>
+        <v>367.2798525126768</v>
       </c>
       <c r="Y10" t="n">
-        <v>542.917597189727</v>
+        <v>367.2798525126768</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1443.761824537777</v>
+        <v>1304.984759711311</v>
       </c>
       <c r="C11" t="n">
-        <v>1443.761824537777</v>
+        <v>923.0510010441178</v>
       </c>
       <c r="D11" t="n">
-        <v>1443.761824537777</v>
+        <v>858.6473909559279</v>
       </c>
       <c r="E11" t="n">
-        <v>1048.976104643884</v>
+        <v>463.8616710620348</v>
       </c>
       <c r="F11" t="n">
-        <v>634.8249139540544</v>
+        <v>463.8616710620348</v>
       </c>
       <c r="G11" t="n">
-        <v>220.2277485121235</v>
+        <v>49.2645056201039</v>
       </c>
       <c r="H11" t="n">
-        <v>163.9899838039301</v>
+        <v>49.2645056201039</v>
       </c>
       <c r="I11" t="n">
-        <v>49.26450562010391</v>
+        <v>49.2645056201039</v>
       </c>
       <c r="J11" t="n">
-        <v>49.26450562010391</v>
+        <v>246.6076053608977</v>
       </c>
       <c r="K11" t="n">
-        <v>477.2638740873506</v>
+        <v>674.6069738281444</v>
       </c>
       <c r="L11" t="n">
-        <v>1058.204943863141</v>
+        <v>1057.998441579773</v>
       </c>
       <c r="M11" t="n">
-        <v>1667.853200911927</v>
+        <v>1132.033057821434</v>
       </c>
       <c r="N11" t="n">
-        <v>1955.018042739044</v>
+        <v>1211.014350862495</v>
       </c>
       <c r="O11" t="n">
-        <v>2018.762938348374</v>
+        <v>1764.849079756978</v>
       </c>
       <c r="P11" t="n">
-        <v>2459.290606179452</v>
+        <v>2205.376747588057</v>
       </c>
       <c r="Q11" t="n">
         <v>2459.290606179452</v>
@@ -5071,22 +5071,22 @@
         <v>2310.332991540241</v>
       </c>
       <c r="T11" t="n">
-        <v>2092.570154653492</v>
+        <v>2092.570154653491</v>
       </c>
       <c r="U11" t="n">
-        <v>1837.805364055796</v>
+        <v>2092.570154653491</v>
       </c>
       <c r="V11" t="n">
-        <v>1837.805364055796</v>
+        <v>2092.570154653491</v>
       </c>
       <c r="W11" t="n">
-        <v>1837.805364055796</v>
+        <v>2092.570154653491</v>
       </c>
       <c r="X11" t="n">
-        <v>1837.805364055796</v>
+        <v>2092.570154653491</v>
       </c>
       <c r="Y11" t="n">
-        <v>1837.805364055796</v>
+        <v>1699.02829922933</v>
       </c>
     </row>
     <row r="12">
@@ -5117,7 +5117,7 @@
         <v>89.88876513490223</v>
       </c>
       <c r="I12" t="n">
-        <v>49.26450562010391</v>
+        <v>49.2645056201039</v>
       </c>
       <c r="J12" t="n">
         <v>184.1730106937741</v>
@@ -5126,19 +5126,19 @@
         <v>541.2597527710673</v>
       </c>
       <c r="L12" t="n">
-        <v>601.3788966891811</v>
+        <v>1078.650421094733</v>
       </c>
       <c r="M12" t="n">
-        <v>820.3889738729293</v>
+        <v>1478.514384714402</v>
       </c>
       <c r="N12" t="n">
-        <v>1430.037230921715</v>
+        <v>2088.162641763187</v>
       </c>
       <c r="O12" t="n">
-        <v>2010.240291484891</v>
+        <v>2161.464897417212</v>
       </c>
       <c r="P12" t="n">
-        <v>2463.225281005195</v>
+        <v>2204.588303697918</v>
       </c>
       <c r="Q12" t="n">
         <v>2463.225281005195</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.5233074197474</v>
+        <v>507.7086210206101</v>
       </c>
       <c r="C13" t="n">
-        <v>951.5233074197474</v>
+        <v>507.7086210206101</v>
       </c>
       <c r="D13" t="n">
-        <v>798.4514142475101</v>
+        <v>354.6367278483728</v>
       </c>
       <c r="E13" t="n">
-        <v>646.4424000088289</v>
+        <v>202.6277136096916</v>
       </c>
       <c r="F13" t="n">
-        <v>493.9617450346061</v>
+        <v>202.6277136096916</v>
       </c>
       <c r="G13" t="n">
-        <v>325.717904475488</v>
+        <v>202.6277136096916</v>
       </c>
       <c r="H13" t="n">
-        <v>185.4116886981712</v>
+        <v>49.2645056201039</v>
       </c>
       <c r="I13" t="n">
-        <v>61.53504344257365</v>
+        <v>49.2645056201039</v>
       </c>
       <c r="J13" t="n">
-        <v>49.26450562010391</v>
+        <v>49.2645056201039</v>
       </c>
       <c r="K13" t="n">
         <v>159.8342104592787</v>
       </c>
       <c r="L13" t="n">
-        <v>358.9306534404433</v>
+        <v>358.9306534404432</v>
       </c>
       <c r="M13" t="n">
         <v>580.7673842363552</v>
@@ -5229,22 +5229,22 @@
         <v>951.5233074197474</v>
       </c>
       <c r="T13" t="n">
-        <v>951.5233074197474</v>
+        <v>768.4439254621875</v>
       </c>
       <c r="U13" t="n">
-        <v>951.5233074197474</v>
+        <v>768.4439254621875</v>
       </c>
       <c r="V13" t="n">
-        <v>951.5233074197474</v>
+        <v>507.7086210206101</v>
       </c>
       <c r="W13" t="n">
-        <v>951.5233074197474</v>
+        <v>507.7086210206101</v>
       </c>
       <c r="X13" t="n">
-        <v>951.5233074197474</v>
+        <v>507.7086210206101</v>
       </c>
       <c r="Y13" t="n">
-        <v>951.5233074197474</v>
+        <v>507.7086210206101</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1369.667537240719</v>
+        <v>942.4498295689116</v>
       </c>
       <c r="C14" t="n">
-        <v>1369.667537240719</v>
+        <v>942.4498295689116</v>
       </c>
       <c r="D14" t="n">
-        <v>1369.667537240719</v>
+        <v>569.6258647961351</v>
       </c>
       <c r="E14" t="n">
-        <v>992.7383399356906</v>
+        <v>569.6258647961351</v>
       </c>
       <c r="F14" t="n">
-        <v>578.5871492458609</v>
+        <v>569.6258647961351</v>
       </c>
       <c r="G14" t="n">
-        <v>163.9899838039301</v>
+        <v>366.6540483926719</v>
       </c>
       <c r="H14" t="n">
-        <v>163.9899838039301</v>
+        <v>49.2645056201039</v>
       </c>
       <c r="I14" t="n">
-        <v>49.26450562010391</v>
+        <v>49.2645056201039</v>
       </c>
       <c r="J14" t="n">
-        <v>49.26450562010391</v>
+        <v>246.6076053608977</v>
       </c>
       <c r="K14" t="n">
-        <v>477.2638740873506</v>
+        <v>674.6069738281444</v>
       </c>
       <c r="L14" t="n">
-        <v>520.6749607367113</v>
+        <v>1057.998441579773</v>
       </c>
       <c r="M14" t="n">
-        <v>1130.323217785497</v>
+        <v>1132.033057821434</v>
       </c>
       <c r="N14" t="n">
-        <v>1739.971474834283</v>
+        <v>1211.014350862495</v>
       </c>
       <c r="O14" t="n">
-        <v>2293.806203728767</v>
+        <v>1764.849079756978</v>
       </c>
       <c r="P14" t="n">
-        <v>2320.178934143147</v>
+        <v>2205.376747588057</v>
       </c>
       <c r="Q14" t="n">
         <v>2459.290606179452</v>
@@ -5305,25 +5305,25 @@
         <v>2463.225281005195</v>
       </c>
       <c r="S14" t="n">
-        <v>2463.225281005195</v>
+        <v>2310.332991540241</v>
       </c>
       <c r="T14" t="n">
-        <v>2463.225281005195</v>
+        <v>2092.570154653491</v>
       </c>
       <c r="U14" t="n">
-        <v>2463.225281005195</v>
+        <v>2092.570154653491</v>
       </c>
       <c r="V14" t="n">
-        <v>2126.246006901137</v>
+        <v>2092.570154653491</v>
       </c>
       <c r="W14" t="n">
-        <v>1763.711076758738</v>
+        <v>1730.035224511093</v>
       </c>
       <c r="X14" t="n">
-        <v>1763.711076758738</v>
+        <v>1730.035224511093</v>
       </c>
       <c r="Y14" t="n">
-        <v>1763.711076758738</v>
+        <v>1336.493369086931</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>89.88876513490223</v>
       </c>
       <c r="I15" t="n">
-        <v>49.26450562010391</v>
+        <v>49.2645056201039</v>
       </c>
       <c r="J15" t="n">
-        <v>49.26450562010391</v>
+        <v>184.1730106937741</v>
       </c>
       <c r="K15" t="n">
-        <v>406.3512476973971</v>
+        <v>541.2597527710673</v>
       </c>
       <c r="L15" t="n">
-        <v>466.4703916155111</v>
+        <v>1078.650421094733</v>
       </c>
       <c r="M15" t="n">
-        <v>1076.118648664297</v>
+        <v>1164.534081800314</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.766905713083</v>
+        <v>1264.397851444007</v>
       </c>
       <c r="O15" t="n">
-        <v>2010.240291484891</v>
+        <v>1751.603314177613</v>
       </c>
       <c r="P15" t="n">
-        <v>2463.225281005195</v>
+        <v>2204.588303697918</v>
       </c>
       <c r="Q15" t="n">
         <v>2463.225281005195</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>969.8984670043872</v>
+        <v>49.2645056201039</v>
       </c>
       <c r="C16" t="n">
-        <v>800.2824974660674</v>
+        <v>49.2645056201039</v>
       </c>
       <c r="D16" t="n">
-        <v>647.2106042938301</v>
+        <v>49.2645056201039</v>
       </c>
       <c r="E16" t="n">
-        <v>495.2015900551489</v>
+        <v>49.2645056201039</v>
       </c>
       <c r="F16" t="n">
-        <v>342.720935080926</v>
+        <v>49.2645056201039</v>
       </c>
       <c r="G16" t="n">
-        <v>202.6277136096916</v>
+        <v>49.2645056201039</v>
       </c>
       <c r="H16" t="n">
-        <v>49.26450562010391</v>
+        <v>49.2645056201039</v>
       </c>
       <c r="I16" t="n">
-        <v>49.26450562010391</v>
+        <v>49.2645056201039</v>
       </c>
       <c r="J16" t="n">
-        <v>49.26450562010391</v>
+        <v>49.2645056201039</v>
       </c>
       <c r="K16" t="n">
         <v>159.8342104592787</v>
       </c>
       <c r="L16" t="n">
-        <v>358.9306534404433</v>
+        <v>358.9306534404432</v>
       </c>
       <c r="M16" t="n">
         <v>580.7673842363552</v>
@@ -5463,25 +5463,25 @@
         <v>1153.453835688767</v>
       </c>
       <c r="S16" t="n">
-        <v>1153.453835688767</v>
+        <v>1075.861901812878</v>
       </c>
       <c r="T16" t="n">
-        <v>1153.453835688767</v>
+        <v>1075.861901812878</v>
       </c>
       <c r="U16" t="n">
-        <v>1153.453835688767</v>
+        <v>788.708530015052</v>
       </c>
       <c r="V16" t="n">
-        <v>1153.453835688767</v>
+        <v>788.708530015052</v>
       </c>
       <c r="W16" t="n">
-        <v>1153.453835688767</v>
+        <v>502.5521285324511</v>
       </c>
       <c r="X16" t="n">
-        <v>1153.453835688767</v>
+        <v>271.2996644278268</v>
       </c>
       <c r="Y16" t="n">
-        <v>1153.453835688767</v>
+        <v>49.2645056201039</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>845.7954297292274</v>
+        <v>922.9546192328037</v>
       </c>
       <c r="C17" t="n">
-        <v>463.8616710620348</v>
+        <v>541.020860565611</v>
       </c>
       <c r="D17" t="n">
-        <v>463.8616710620348</v>
+        <v>444.050225513997</v>
       </c>
       <c r="E17" t="n">
-        <v>463.8616710620348</v>
+        <v>49.2645056201039</v>
       </c>
       <c r="F17" t="n">
-        <v>463.8616710620348</v>
+        <v>49.2645056201039</v>
       </c>
       <c r="G17" t="n">
-        <v>49.26450562010391</v>
+        <v>49.2645056201039</v>
       </c>
       <c r="H17" t="n">
-        <v>49.26450562010391</v>
+        <v>49.2645056201039</v>
       </c>
       <c r="I17" t="n">
-        <v>49.26450562010391</v>
+        <v>49.2645056201039</v>
       </c>
       <c r="J17" t="n">
-        <v>246.6076053608977</v>
+        <v>49.2645056201039</v>
       </c>
       <c r="K17" t="n">
-        <v>674.6069738281444</v>
+        <v>477.2638740873506</v>
       </c>
       <c r="L17" t="n">
-        <v>718.0180604775052</v>
+        <v>1058.204943863141</v>
       </c>
       <c r="M17" t="n">
-        <v>1327.666317526291</v>
+        <v>1135.967732647177</v>
       </c>
       <c r="N17" t="n">
-        <v>1937.314574575077</v>
+        <v>1214.949025688238</v>
       </c>
       <c r="O17" t="n">
-        <v>2001.059470184407</v>
+        <v>1768.783754582721</v>
       </c>
       <c r="P17" t="n">
-        <v>2441.587138015486</v>
+        <v>2209.3114224138</v>
       </c>
       <c r="Q17" t="n">
         <v>2463.225281005195</v>
@@ -5542,25 +5542,25 @@
         <v>2463.225281005195</v>
       </c>
       <c r="S17" t="n">
-        <v>2463.225281005195</v>
+        <v>2310.332991540241</v>
       </c>
       <c r="T17" t="n">
-        <v>2463.225281005195</v>
+        <v>2092.570154653491</v>
       </c>
       <c r="U17" t="n">
-        <v>2320.881629878354</v>
+        <v>2092.570154653491</v>
       </c>
       <c r="V17" t="n">
-        <v>1983.902355774295</v>
+        <v>2092.570154653491</v>
       </c>
       <c r="W17" t="n">
-        <v>1621.367425631896</v>
+        <v>2092.570154653491</v>
       </c>
       <c r="X17" t="n">
-        <v>1239.33728515339</v>
+        <v>1710.540014174985</v>
       </c>
       <c r="Y17" t="n">
-        <v>845.7954297292274</v>
+        <v>1316.998158750823</v>
       </c>
     </row>
     <row r="18">
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>892.2266285203598</v>
+        <v>892.226628520359</v>
       </c>
       <c r="C18" t="n">
-        <v>730.5229557613145</v>
+        <v>730.5229557613138</v>
       </c>
       <c r="D18" t="n">
-        <v>591.6843187515266</v>
+        <v>591.6843187515258</v>
       </c>
       <c r="E18" t="n">
-        <v>444.6563088083978</v>
+        <v>444.6563088083969</v>
       </c>
       <c r="F18" t="n">
-        <v>309.9625107582722</v>
+        <v>309.9625107582714</v>
       </c>
       <c r="G18" t="n">
-        <v>182.0402311486003</v>
+        <v>182.0402311485994</v>
       </c>
       <c r="H18" t="n">
-        <v>89.88876513490344</v>
+        <v>89.88876513490254</v>
       </c>
       <c r="I18" t="n">
-        <v>49.26450562010391</v>
+        <v>49.2645056201039</v>
       </c>
       <c r="J18" t="n">
-        <v>49.26450562010391</v>
+        <v>184.1730106937741</v>
       </c>
       <c r="K18" t="n">
-        <v>65.98448766220841</v>
+        <v>541.2597527710673</v>
       </c>
       <c r="L18" t="n">
-        <v>603.3751559858742</v>
+        <v>1078.650421094733</v>
       </c>
       <c r="M18" t="n">
-        <v>1213.02341303466</v>
+        <v>1481.398067210343</v>
       </c>
       <c r="N18" t="n">
-        <v>1581.261836854037</v>
+        <v>1581.261836854036</v>
       </c>
       <c r="O18" t="n">
-        <v>2161.464897417213</v>
+        <v>2161.464897417212</v>
       </c>
       <c r="P18" t="n">
         <v>2204.588303697918</v>
@@ -5618,28 +5618,28 @@
         <v>2463.225281005195</v>
       </c>
       <c r="R18" t="n">
-        <v>2453.497395941672</v>
+        <v>2453.497395941671</v>
       </c>
       <c r="S18" t="n">
-        <v>2315.673098666822</v>
+        <v>2315.673098666821</v>
       </c>
       <c r="T18" t="n">
-        <v>2130.237628680672</v>
+        <v>2130.237628680671</v>
       </c>
       <c r="U18" t="n">
-        <v>1911.795877092603</v>
+        <v>1911.795877092602</v>
       </c>
       <c r="V18" t="n">
-        <v>1683.400254540937</v>
+        <v>1683.400254540936</v>
       </c>
       <c r="W18" t="n">
         <v>1442.084385774247</v>
       </c>
       <c r="X18" t="n">
-        <v>1244.167397652042</v>
+        <v>1244.167397652041</v>
       </c>
       <c r="Y18" t="n">
-        <v>1051.646071301621</v>
+        <v>1051.64607130162</v>
       </c>
     </row>
     <row r="19">
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.26450562010391</v>
+        <v>522.8805684074908</v>
       </c>
       <c r="C19" t="n">
-        <v>49.26450562010391</v>
+        <v>522.8805684074908</v>
       </c>
       <c r="D19" t="n">
-        <v>49.26450562010391</v>
+        <v>522.8805684074908</v>
       </c>
       <c r="E19" t="n">
-        <v>49.26450562010391</v>
+        <v>370.8715541688097</v>
       </c>
       <c r="F19" t="n">
-        <v>49.26450562010391</v>
+        <v>370.8715541688097</v>
       </c>
       <c r="G19" t="n">
-        <v>49.26450562010391</v>
+        <v>202.6277136096916</v>
       </c>
       <c r="H19" t="n">
-        <v>49.26450562010391</v>
+        <v>49.2645056201039</v>
       </c>
       <c r="I19" t="n">
-        <v>49.26450562010391</v>
+        <v>49.2645056201039</v>
       </c>
       <c r="J19" t="n">
-        <v>49.26450562010391</v>
+        <v>49.2645056201039</v>
       </c>
       <c r="K19" t="n">
         <v>159.8342104592787</v>
       </c>
       <c r="L19" t="n">
-        <v>358.9306534404433</v>
+        <v>358.9306534404432</v>
       </c>
       <c r="M19" t="n">
         <v>580.7673842363552</v>
@@ -5697,28 +5697,28 @@
         <v>1153.453835688767</v>
       </c>
       <c r="R19" t="n">
-        <v>1113.600565668929</v>
+        <v>1153.453835688767</v>
       </c>
       <c r="S19" t="n">
-        <v>1113.600565668929</v>
+        <v>1153.453835688767</v>
       </c>
       <c r="T19" t="n">
-        <v>883.3095833421078</v>
+        <v>1153.453835688767</v>
       </c>
       <c r="U19" t="n">
-        <v>596.1562115442822</v>
+        <v>1153.453835688767</v>
       </c>
       <c r="V19" t="n">
-        <v>335.4209071027048</v>
+        <v>892.7185312471895</v>
       </c>
       <c r="W19" t="n">
-        <v>49.26450562010391</v>
+        <v>892.7185312471895</v>
       </c>
       <c r="X19" t="n">
-        <v>49.26450562010391</v>
+        <v>744.9157272152138</v>
       </c>
       <c r="Y19" t="n">
-        <v>49.26450562010391</v>
+        <v>522.8805684074908</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1612.959139643796</v>
+        <v>1231.025380976603</v>
       </c>
       <c r="C20" t="n">
         <v>1231.025380976603</v>
@@ -5752,52 +5752,52 @@
         <v>49.26450562010391</v>
       </c>
       <c r="J20" t="n">
-        <v>49.26450562010391</v>
+        <v>246.6076053608977</v>
       </c>
       <c r="K20" t="n">
-        <v>477.2638740873506</v>
+        <v>674.6069738281444</v>
       </c>
       <c r="L20" t="n">
-        <v>1058.204943863141</v>
+        <v>1012.474634057802</v>
       </c>
       <c r="M20" t="n">
-        <v>1132.239560104802</v>
+        <v>1622.122891106588</v>
       </c>
       <c r="N20" t="n">
-        <v>1468.862884279633</v>
+        <v>1701.104184147649</v>
       </c>
       <c r="O20" t="n">
-        <v>2022.697613174117</v>
+        <v>1764.849079756979</v>
       </c>
       <c r="P20" t="n">
-        <v>2463.225281005195</v>
+        <v>2205.376747588057</v>
       </c>
       <c r="Q20" t="n">
-        <v>2463.225281005195</v>
+        <v>2459.290606179452</v>
       </c>
       <c r="R20" t="n">
         <v>2463.225281005195</v>
       </c>
       <c r="S20" t="n">
-        <v>2463.225281005195</v>
+        <v>2369.132307021671</v>
       </c>
       <c r="T20" t="n">
-        <v>2463.225281005195</v>
+        <v>2369.132307021671</v>
       </c>
       <c r="U20" t="n">
-        <v>2400.544534585977</v>
+        <v>2369.132307021671</v>
       </c>
       <c r="V20" t="n">
-        <v>2400.544534585977</v>
+        <v>2369.132307021671</v>
       </c>
       <c r="W20" t="n">
-        <v>2400.544534585977</v>
+        <v>2006.597376879272</v>
       </c>
       <c r="X20" t="n">
-        <v>2400.544534585977</v>
+        <v>1624.567236400765</v>
       </c>
       <c r="Y20" t="n">
-        <v>2007.002679161815</v>
+        <v>1231.025380976603</v>
       </c>
     </row>
     <row r="21">
@@ -5822,10 +5822,10 @@
         <v>309.9625107582714</v>
       </c>
       <c r="G21" t="n">
-        <v>182.0402311485991</v>
+        <v>182.0402311485996</v>
       </c>
       <c r="H21" t="n">
-        <v>89.88876513490231</v>
+        <v>89.88876513490223</v>
       </c>
       <c r="I21" t="n">
         <v>49.26450562010391</v>
@@ -5834,16 +5834,16 @@
         <v>184.1730106937741</v>
       </c>
       <c r="K21" t="n">
-        <v>200.8929927358786</v>
+        <v>541.2597527710673</v>
       </c>
       <c r="L21" t="n">
-        <v>738.2836610595446</v>
+        <v>1078.650421094733</v>
       </c>
       <c r="M21" t="n">
-        <v>1071.536483970744</v>
+        <v>1164.534081800314</v>
       </c>
       <c r="N21" t="n">
-        <v>1171.400253614438</v>
+        <v>1264.397851444007</v>
       </c>
       <c r="O21" t="n">
         <v>1751.603314177614</v>
@@ -5855,7 +5855,7 @@
         <v>2463.225281005195</v>
       </c>
       <c r="R21" t="n">
-        <v>2453.497395941671</v>
+        <v>2453.497395941672</v>
       </c>
       <c r="S21" t="n">
         <v>2315.673098666822</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2142.164256161608</v>
+        <v>218.8804751584236</v>
       </c>
       <c r="C22" t="n">
-        <v>2142.164256161608</v>
+        <v>49.26450562010391</v>
       </c>
       <c r="D22" t="n">
-        <v>2121.279851776209</v>
+        <v>49.26450562010391</v>
       </c>
       <c r="E22" t="n">
-        <v>1969.270837537528</v>
+        <v>49.26450562010391</v>
       </c>
       <c r="F22" t="n">
-        <v>1816.790182563305</v>
+        <v>49.26450562010391</v>
       </c>
       <c r="G22" t="n">
-        <v>1648.546342004187</v>
+        <v>49.26450562010391</v>
       </c>
       <c r="H22" t="n">
-        <v>1495.1831340146</v>
+        <v>49.26450562010391</v>
       </c>
       <c r="I22" t="n">
-        <v>1371.306488759002</v>
+        <v>49.26450562010391</v>
       </c>
       <c r="J22" t="n">
-        <v>1359.035950936532</v>
+        <v>49.26450562010391</v>
       </c>
       <c r="K22" t="n">
-        <v>1469.605655775707</v>
+        <v>159.8342104592787</v>
       </c>
       <c r="L22" t="n">
-        <v>1668.702098756871</v>
+        <v>358.9306534404433</v>
       </c>
       <c r="M22" t="n">
-        <v>1890.538829552783</v>
+        <v>580.7673842363552</v>
       </c>
       <c r="N22" t="n">
-        <v>2110.335236189101</v>
+        <v>800.5637908726728</v>
       </c>
       <c r="O22" t="n">
-        <v>2302.43423947554</v>
+        <v>992.6627941591116</v>
       </c>
       <c r="P22" t="n">
-        <v>2445.523946945903</v>
+        <v>1135.752501629475</v>
       </c>
       <c r="Q22" t="n">
-        <v>2463.225281005195</v>
+        <v>1153.453835688767</v>
       </c>
       <c r="R22" t="n">
-        <v>2344.094784430627</v>
+        <v>1034.323339114199</v>
       </c>
       <c r="S22" t="n">
-        <v>2142.164256161608</v>
+        <v>854.7619849773475</v>
       </c>
       <c r="T22" t="n">
-        <v>2142.164256161608</v>
+        <v>624.4710026505264</v>
       </c>
       <c r="U22" t="n">
-        <v>2142.164256161608</v>
+        <v>624.4710026505264</v>
       </c>
       <c r="V22" t="n">
-        <v>2142.164256161608</v>
+        <v>624.4710026505264</v>
       </c>
       <c r="W22" t="n">
-        <v>2142.164256161608</v>
+        <v>624.4710026505264</v>
       </c>
       <c r="X22" t="n">
-        <v>2142.164256161608</v>
+        <v>624.4710026505264</v>
       </c>
       <c r="Y22" t="n">
-        <v>2142.164256161608</v>
+        <v>402.4358438428035</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1916.289452022222</v>
+        <v>1172.226065495173</v>
       </c>
       <c r="C23" t="n">
-        <v>1916.289452022222</v>
+        <v>836.23966108271</v>
       </c>
       <c r="D23" t="n">
-        <v>1543.465487249445</v>
+        <v>463.4156963099336</v>
       </c>
       <c r="E23" t="n">
-        <v>1148.679767355552</v>
+        <v>463.4156963099336</v>
       </c>
       <c r="F23" t="n">
-        <v>734.5285766657225</v>
+        <v>49.26450562010391</v>
       </c>
       <c r="G23" t="n">
-        <v>366.6540483926719</v>
+        <v>49.26450562010391</v>
       </c>
       <c r="H23" t="n">
         <v>49.26450562010391</v>
@@ -5995,22 +5995,22 @@
         <v>674.6069738281444</v>
       </c>
       <c r="L23" t="n">
-        <v>1061.933116405517</v>
+        <v>1190.453596780742</v>
       </c>
       <c r="M23" t="n">
-        <v>1135.967732647177</v>
+        <v>1800.101853829528</v>
       </c>
       <c r="N23" t="n">
-        <v>1214.949025688238</v>
+        <v>1879.083146870589</v>
       </c>
       <c r="O23" t="n">
-        <v>1768.783754582722</v>
+        <v>2432.917875765072</v>
       </c>
       <c r="P23" t="n">
-        <v>2209.3114224138</v>
+        <v>2459.290606179452</v>
       </c>
       <c r="Q23" t="n">
-        <v>2463.225281005195</v>
+        <v>2459.290606179452</v>
       </c>
       <c r="R23" t="n">
         <v>2463.225281005195</v>
@@ -6028,13 +6028,13 @@
         <v>2310.332991540241</v>
       </c>
       <c r="W23" t="n">
-        <v>2310.332991540241</v>
+        <v>1947.798061397842</v>
       </c>
       <c r="X23" t="n">
-        <v>2310.332991540241</v>
+        <v>1565.767920919335</v>
       </c>
       <c r="Y23" t="n">
-        <v>2310.332991540241</v>
+        <v>1172.226065495173</v>
       </c>
     </row>
     <row r="24">
@@ -6074,19 +6074,19 @@
         <v>65.98448766220841</v>
       </c>
       <c r="L24" t="n">
-        <v>603.3751559858742</v>
+        <v>461.8882269219572</v>
       </c>
       <c r="M24" t="n">
-        <v>1213.02341303466</v>
+        <v>1071.536483970743</v>
       </c>
       <c r="N24" t="n">
-        <v>1822.671670083446</v>
+        <v>1171.400253614436</v>
       </c>
       <c r="O24" t="n">
-        <v>2010.24029148489</v>
+        <v>1751.603314177612</v>
       </c>
       <c r="P24" t="n">
-        <v>2463.225281005194</v>
+        <v>2204.588303697917</v>
       </c>
       <c r="Q24" t="n">
         <v>2463.225281005194</v>
@@ -6171,28 +6171,28 @@
         <v>1153.453835688767</v>
       </c>
       <c r="R25" t="n">
-        <v>1085.240111611127</v>
+        <v>1153.453835688767</v>
       </c>
       <c r="S25" t="n">
-        <v>883.3095833421078</v>
+        <v>1153.453835688767</v>
       </c>
       <c r="T25" t="n">
-        <v>883.3095833421078</v>
+        <v>1153.453835688767</v>
       </c>
       <c r="U25" t="n">
-        <v>596.1562115442822</v>
+        <v>866.3004638909413</v>
       </c>
       <c r="V25" t="n">
-        <v>335.4209071027048</v>
+        <v>605.5651594493638</v>
       </c>
       <c r="W25" t="n">
-        <v>49.26450562010391</v>
+        <v>319.4087579667629</v>
       </c>
       <c r="X25" t="n">
-        <v>49.26450562010391</v>
+        <v>319.4087579667629</v>
       </c>
       <c r="Y25" t="n">
-        <v>49.26450562010391</v>
+        <v>97.37359915904003</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1654.73234031295</v>
+        <v>422.0884703928804</v>
       </c>
       <c r="C26" t="n">
-        <v>1272.798581645758</v>
+        <v>422.0884703928804</v>
       </c>
       <c r="D26" t="n">
-        <v>1272.798581645758</v>
+        <v>49.26450562010391</v>
       </c>
       <c r="E26" t="n">
-        <v>878.0128617518644</v>
+        <v>49.26450562010391</v>
       </c>
       <c r="F26" t="n">
-        <v>463.8616710620348</v>
+        <v>49.26450562010391</v>
       </c>
       <c r="G26" t="n">
         <v>49.26450562010391</v>
@@ -6226,25 +6226,25 @@
         <v>49.26450562010391</v>
       </c>
       <c r="J26" t="n">
-        <v>49.26450562010391</v>
+        <v>246.6076053608977</v>
       </c>
       <c r="K26" t="n">
-        <v>60.08872810826159</v>
+        <v>674.6069738281444</v>
       </c>
       <c r="L26" t="n">
-        <v>641.029797884052</v>
+        <v>718.0180604775052</v>
       </c>
       <c r="M26" t="n">
-        <v>1250.678054932838</v>
+        <v>792.0526767191659</v>
       </c>
       <c r="N26" t="n">
-        <v>1860.326311981624</v>
+        <v>1214.949025688238</v>
       </c>
       <c r="O26" t="n">
-        <v>2414.161040876108</v>
+        <v>1768.783754582722</v>
       </c>
       <c r="P26" t="n">
-        <v>2440.533771290487</v>
+        <v>2209.3114224138</v>
       </c>
       <c r="Q26" t="n">
         <v>2463.225281005195</v>
@@ -6253,25 +6253,25 @@
         <v>2463.225281005195</v>
       </c>
       <c r="S26" t="n">
-        <v>2411.310809973369</v>
+        <v>2310.332991540241</v>
       </c>
       <c r="T26" t="n">
-        <v>2411.310809973369</v>
+        <v>2092.570154653492</v>
       </c>
       <c r="U26" t="n">
-        <v>2411.310809973369</v>
+        <v>1954.238935955967</v>
       </c>
       <c r="V26" t="n">
-        <v>2411.310809973369</v>
+        <v>1954.238935955967</v>
       </c>
       <c r="W26" t="n">
-        <v>2048.77587983097</v>
+        <v>1591.704005813568</v>
       </c>
       <c r="X26" t="n">
-        <v>2048.77587983097</v>
+        <v>1209.673865335062</v>
       </c>
       <c r="Y26" t="n">
-        <v>2048.77587983097</v>
+        <v>816.1320099108996</v>
       </c>
     </row>
     <row r="27">
@@ -6311,19 +6311,19 @@
         <v>541.2597527710673</v>
       </c>
       <c r="L27" t="n">
-        <v>1078.650421094733</v>
+        <v>985.6528232651642</v>
       </c>
       <c r="M27" t="n">
-        <v>1327.28977878208</v>
+        <v>1071.536483970744</v>
       </c>
       <c r="N27" t="n">
-        <v>1936.938035830866</v>
+        <v>1171.400253614438</v>
       </c>
       <c r="O27" t="n">
-        <v>2010.240291484891</v>
+        <v>1751.603314177614</v>
       </c>
       <c r="P27" t="n">
-        <v>2463.225281005195</v>
+        <v>2204.588303697918</v>
       </c>
       <c r="Q27" t="n">
         <v>2463.225281005195</v>
@@ -6414,22 +6414,22 @@
         <v>1153.453835688767</v>
       </c>
       <c r="T28" t="n">
-        <v>1153.453835688767</v>
+        <v>1114.562047446732</v>
       </c>
       <c r="U28" t="n">
-        <v>1153.453835688767</v>
+        <v>827.4086756489064</v>
       </c>
       <c r="V28" t="n">
-        <v>892.7185312471895</v>
+        <v>566.673371207329</v>
       </c>
       <c r="W28" t="n">
-        <v>606.5621297645887</v>
+        <v>280.5169697247281</v>
       </c>
       <c r="X28" t="n">
-        <v>375.3096656599645</v>
+        <v>49.26450562010391</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.2745068522416</v>
+        <v>49.26450562010391</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2027.556305085727</v>
+        <v>431.1982642872966</v>
       </c>
       <c r="C29" t="n">
-        <v>1645.622546418534</v>
+        <v>49.26450562010391</v>
       </c>
       <c r="D29" t="n">
-        <v>1272.798581645758</v>
+        <v>49.26450562010391</v>
       </c>
       <c r="E29" t="n">
-        <v>878.0128617518644</v>
+        <v>49.26450562010391</v>
       </c>
       <c r="F29" t="n">
-        <v>463.8616710620348</v>
+        <v>49.26450562010391</v>
       </c>
       <c r="G29" t="n">
         <v>49.26450562010391</v>
@@ -6463,52 +6463,52 @@
         <v>49.26450562010391</v>
       </c>
       <c r="J29" t="n">
-        <v>49.26450562010391</v>
+        <v>246.6076053608977</v>
       </c>
       <c r="K29" t="n">
-        <v>477.2638740873506</v>
+        <v>674.6069738281444</v>
       </c>
       <c r="L29" t="n">
-        <v>945.42108981449</v>
+        <v>1057.998441579774</v>
       </c>
       <c r="M29" t="n">
-        <v>1019.455706056151</v>
+        <v>1132.033057821434</v>
       </c>
       <c r="N29" t="n">
-        <v>1629.103963104937</v>
+        <v>1211.014350862495</v>
       </c>
       <c r="O29" t="n">
-        <v>2182.93869199942</v>
+        <v>1764.849079756979</v>
       </c>
       <c r="P29" t="n">
-        <v>2209.3114224138</v>
+        <v>2205.376747588057</v>
       </c>
       <c r="Q29" t="n">
-        <v>2463.225281005195</v>
+        <v>2459.290606179452</v>
       </c>
       <c r="R29" t="n">
         <v>2463.225281005195</v>
       </c>
       <c r="S29" t="n">
-        <v>2463.225281005195</v>
+        <v>2310.332991540241</v>
       </c>
       <c r="T29" t="n">
-        <v>2463.225281005195</v>
+        <v>2092.570154653492</v>
       </c>
       <c r="U29" t="n">
-        <v>2463.225281005195</v>
+        <v>1837.805364055796</v>
       </c>
       <c r="V29" t="n">
-        <v>2421.599844603746</v>
+        <v>1581.318589371877</v>
       </c>
       <c r="W29" t="n">
-        <v>2421.599844603746</v>
+        <v>1218.783659229478</v>
       </c>
       <c r="X29" t="n">
-        <v>2421.599844603746</v>
+        <v>1218.783659229478</v>
       </c>
       <c r="Y29" t="n">
-        <v>2421.599844603746</v>
+        <v>825.2418038053157</v>
       </c>
     </row>
     <row r="30">
@@ -6533,31 +6533,31 @@
         <v>309.9625107582714</v>
       </c>
       <c r="G30" t="n">
-        <v>182.0402311485991</v>
+        <v>182.0402311485996</v>
       </c>
       <c r="H30" t="n">
-        <v>89.88876513490224</v>
+        <v>89.88876513490223</v>
       </c>
       <c r="I30" t="n">
         <v>49.26450562010391</v>
       </c>
       <c r="J30" t="n">
-        <v>66.49164969797216</v>
+        <v>49.26450562010391</v>
       </c>
       <c r="K30" t="n">
-        <v>83.21163174007665</v>
+        <v>183.1345359055701</v>
       </c>
       <c r="L30" t="n">
-        <v>620.6023000637425</v>
+        <v>720.525204229236</v>
       </c>
       <c r="M30" t="n">
-        <v>1230.250557112528</v>
+        <v>1330.173461278022</v>
       </c>
       <c r="N30" t="n">
-        <v>1839.898814161314</v>
+        <v>1430.037230921715</v>
       </c>
       <c r="O30" t="n">
-        <v>2420.10187472449</v>
+        <v>2010.240291484891</v>
       </c>
       <c r="P30" t="n">
         <v>2463.225281005195</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>49.26450562010391</v>
+        <v>201.7451605943268</v>
       </c>
       <c r="C31" t="n">
-        <v>49.26450562010391</v>
+        <v>201.7451605943268</v>
       </c>
       <c r="D31" t="n">
-        <v>49.26450562010391</v>
+        <v>201.7451605943268</v>
       </c>
       <c r="E31" t="n">
-        <v>49.26450562010391</v>
+        <v>201.7451605943268</v>
       </c>
       <c r="F31" t="n">
         <v>49.26450562010391</v>
@@ -6645,28 +6645,28 @@
         <v>1153.453835688767</v>
       </c>
       <c r="R31" t="n">
-        <v>1113.600565668929</v>
+        <v>1153.453835688767</v>
       </c>
       <c r="S31" t="n">
-        <v>1113.600565668929</v>
+        <v>951.5233074197474</v>
       </c>
       <c r="T31" t="n">
-        <v>883.3095833421078</v>
+        <v>721.2323250929263</v>
       </c>
       <c r="U31" t="n">
-        <v>596.1562115442822</v>
+        <v>721.2323250929263</v>
       </c>
       <c r="V31" t="n">
-        <v>335.4209071027048</v>
+        <v>721.2323250929263</v>
       </c>
       <c r="W31" t="n">
-        <v>49.26450562010391</v>
+        <v>721.2323250929263</v>
       </c>
       <c r="X31" t="n">
-        <v>49.26450562010391</v>
+        <v>607.3356880864295</v>
       </c>
       <c r="Y31" t="n">
-        <v>49.26450562010391</v>
+        <v>385.3005292787066</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2027.556305085727</v>
+        <v>1704.913602602152</v>
       </c>
       <c r="C32" t="n">
-        <v>1645.622546418534</v>
+        <v>1704.913602602152</v>
       </c>
       <c r="D32" t="n">
-        <v>1272.798581645758</v>
+        <v>1704.913602602152</v>
       </c>
       <c r="E32" t="n">
-        <v>878.0128617518644</v>
+        <v>1310.127882708259</v>
       </c>
       <c r="F32" t="n">
-        <v>463.8616710620348</v>
+        <v>895.976692018429</v>
       </c>
       <c r="G32" t="n">
-        <v>49.2645056201039</v>
+        <v>481.3795265764981</v>
       </c>
       <c r="H32" t="n">
-        <v>49.2645056201039</v>
+        <v>163.9899838039301</v>
       </c>
       <c r="I32" t="n">
-        <v>49.2645056201039</v>
+        <v>49.26450562010391</v>
       </c>
       <c r="J32" t="n">
-        <v>49.2645056201039</v>
+        <v>49.26450562010391</v>
       </c>
       <c r="K32" t="n">
-        <v>477.2638740873506</v>
+        <v>60.08872810826159</v>
       </c>
       <c r="L32" t="n">
-        <v>1058.204943863141</v>
+        <v>641.029797884052</v>
       </c>
       <c r="M32" t="n">
-        <v>1132.239560104802</v>
+        <v>1250.678054932838</v>
       </c>
       <c r="N32" t="n">
-        <v>1625.169288279193</v>
+        <v>1860.326311981624</v>
       </c>
       <c r="O32" t="n">
-        <v>2179.004017173677</v>
+        <v>2414.161040876108</v>
       </c>
       <c r="P32" t="n">
-        <v>2205.376747588057</v>
+        <v>2463.225281005195</v>
       </c>
       <c r="Q32" t="n">
-        <v>2459.290606179452</v>
+        <v>2463.225281005195</v>
       </c>
       <c r="R32" t="n">
         <v>2463.225281005195</v>
       </c>
       <c r="S32" t="n">
-        <v>2463.225281005195</v>
+        <v>2310.332991540241</v>
       </c>
       <c r="T32" t="n">
-        <v>2463.225281005195</v>
+        <v>2092.570154653492</v>
       </c>
       <c r="U32" t="n">
-        <v>2463.225281005195</v>
+        <v>1837.805364055796</v>
       </c>
       <c r="V32" t="n">
-        <v>2463.225281005195</v>
+        <v>1704.913602602152</v>
       </c>
       <c r="W32" t="n">
-        <v>2421.599844603746</v>
+        <v>1704.913602602152</v>
       </c>
       <c r="X32" t="n">
-        <v>2421.599844603746</v>
+        <v>1704.913602602152</v>
       </c>
       <c r="Y32" t="n">
-        <v>2421.599844603746</v>
+        <v>1704.913602602152</v>
       </c>
     </row>
     <row r="33">
@@ -6755,61 +6755,61 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>892.226628520359</v>
+        <v>892.2266285203585</v>
       </c>
       <c r="C33" t="n">
-        <v>730.5229557613138</v>
+        <v>730.5229557613133</v>
       </c>
       <c r="D33" t="n">
-        <v>591.6843187515258</v>
+        <v>591.6843187515253</v>
       </c>
       <c r="E33" t="n">
-        <v>444.6563088083969</v>
+        <v>444.6563088083966</v>
       </c>
       <c r="F33" t="n">
-        <v>309.9625107582714</v>
+        <v>309.9625107582709</v>
       </c>
       <c r="G33" t="n">
-        <v>182.0402311485994</v>
+        <v>182.0402311485991</v>
       </c>
       <c r="H33" t="n">
-        <v>89.88876513490254</v>
+        <v>89.88876513490223</v>
       </c>
       <c r="I33" t="n">
-        <v>49.2645056201039</v>
+        <v>49.26450562010391</v>
       </c>
       <c r="J33" t="n">
-        <v>184.1730106937741</v>
+        <v>49.26450562010391</v>
       </c>
       <c r="K33" t="n">
-        <v>541.2597527710673</v>
+        <v>83.21163174007529</v>
       </c>
       <c r="L33" t="n">
-        <v>985.6528232651638</v>
+        <v>620.6023000637412</v>
       </c>
       <c r="M33" t="n">
-        <v>1071.536483970744</v>
+        <v>1230.250557112527</v>
       </c>
       <c r="N33" t="n">
-        <v>1171.400253614437</v>
+        <v>1839.898814161313</v>
       </c>
       <c r="O33" t="n">
-        <v>1751.603314177613</v>
+        <v>2420.101874724489</v>
       </c>
       <c r="P33" t="n">
-        <v>2204.588303697918</v>
+        <v>2463.225281005194</v>
       </c>
       <c r="Q33" t="n">
-        <v>2463.225281005195</v>
+        <v>2463.225281005194</v>
       </c>
       <c r="R33" t="n">
-        <v>2453.497395941671</v>
+        <v>2453.49739594167</v>
       </c>
       <c r="S33" t="n">
         <v>2315.673098666821</v>
       </c>
       <c r="T33" t="n">
-        <v>2130.237628680671</v>
+        <v>2130.23762868067</v>
       </c>
       <c r="U33" t="n">
         <v>1911.795877092602</v>
@@ -6818,13 +6818,13 @@
         <v>1683.400254540936</v>
       </c>
       <c r="W33" t="n">
-        <v>1442.084385774247</v>
+        <v>1442.084385774246</v>
       </c>
       <c r="X33" t="n">
         <v>1244.167397652041</v>
       </c>
       <c r="Y33" t="n">
-        <v>1051.64607130162</v>
+        <v>1051.646071301619</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1398.88922095637</v>
+        <v>326.5043588652892</v>
       </c>
       <c r="C34" t="n">
-        <v>1398.88922095637</v>
+        <v>326.5043588652892</v>
       </c>
       <c r="D34" t="n">
-        <v>1398.88922095637</v>
+        <v>326.5043588652892</v>
       </c>
       <c r="E34" t="n">
-        <v>1398.88922095637</v>
+        <v>326.5043588652892</v>
       </c>
       <c r="F34" t="n">
-        <v>1398.88922095637</v>
+        <v>326.5043588652892</v>
       </c>
       <c r="G34" t="n">
-        <v>1398.88922095637</v>
+        <v>326.5043588652892</v>
       </c>
       <c r="H34" t="n">
-        <v>1359.035950936532</v>
+        <v>173.1411508757015</v>
       </c>
       <c r="I34" t="n">
-        <v>1359.035950936532</v>
+        <v>49.26450562010391</v>
       </c>
       <c r="J34" t="n">
-        <v>1359.035950936532</v>
+        <v>49.26450562010391</v>
       </c>
       <c r="K34" t="n">
-        <v>1469.605655775707</v>
+        <v>159.8342104592787</v>
       </c>
       <c r="L34" t="n">
-        <v>1668.702098756871</v>
+        <v>358.9306534404433</v>
       </c>
       <c r="M34" t="n">
-        <v>1890.538829552783</v>
+        <v>580.7673842363552</v>
       </c>
       <c r="N34" t="n">
-        <v>2110.335236189101</v>
+        <v>800.5637908726728</v>
       </c>
       <c r="O34" t="n">
-        <v>2302.434239475539</v>
+        <v>992.6627941591116</v>
       </c>
       <c r="P34" t="n">
-        <v>2445.523946945903</v>
+        <v>1135.752501629475</v>
       </c>
       <c r="Q34" t="n">
-        <v>2463.225281005195</v>
+        <v>1153.453835688767</v>
       </c>
       <c r="R34" t="n">
-        <v>2463.225281005195</v>
+        <v>1153.453835688767</v>
       </c>
       <c r="S34" t="n">
-        <v>2463.225281005195</v>
+        <v>951.5233074197474</v>
       </c>
       <c r="T34" t="n">
-        <v>2232.934298678374</v>
+        <v>721.2323250929263</v>
       </c>
       <c r="U34" t="n">
-        <v>1945.780926880548</v>
+        <v>721.2323250929263</v>
       </c>
       <c r="V34" t="n">
-        <v>1685.045622438971</v>
+        <v>460.4970206513489</v>
       </c>
       <c r="W34" t="n">
-        <v>1398.88922095637</v>
+        <v>326.5043588652892</v>
       </c>
       <c r="X34" t="n">
-        <v>1398.88922095637</v>
+        <v>326.5043588652892</v>
       </c>
       <c r="Y34" t="n">
-        <v>1398.88922095637</v>
+        <v>326.5043588652892</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1763.711076758738</v>
+        <v>1126.916145682536</v>
       </c>
       <c r="C35" t="n">
-        <v>1381.777318091545</v>
+        <v>1126.916145682536</v>
       </c>
       <c r="D35" t="n">
-        <v>1008.953353318769</v>
+        <v>1126.916145682536</v>
       </c>
       <c r="E35" t="n">
-        <v>1008.953353318769</v>
+        <v>732.1304257886425</v>
       </c>
       <c r="F35" t="n">
-        <v>594.802162628939</v>
+        <v>317.9792350988128</v>
       </c>
       <c r="G35" t="n">
-        <v>366.6540483926719</v>
+        <v>49.26450562010391</v>
       </c>
       <c r="H35" t="n">
         <v>49.26450562010391</v>
@@ -6940,25 +6940,25 @@
         <v>49.26450562010391</v>
       </c>
       <c r="K35" t="n">
-        <v>60.08872810826159</v>
+        <v>154.7804588656813</v>
       </c>
       <c r="L35" t="n">
-        <v>641.029797884052</v>
+        <v>735.7215286414718</v>
       </c>
       <c r="M35" t="n">
-        <v>1250.678054932838</v>
+        <v>1345.369785690258</v>
       </c>
       <c r="N35" t="n">
-        <v>1860.326311981624</v>
+        <v>1955.018042739044</v>
       </c>
       <c r="O35" t="n">
-        <v>2414.161040876108</v>
+        <v>2018.762938348374</v>
       </c>
       <c r="P35" t="n">
-        <v>2440.533771290487</v>
+        <v>2459.290606179452</v>
       </c>
       <c r="Q35" t="n">
-        <v>2463.225281005195</v>
+        <v>2459.290606179452</v>
       </c>
       <c r="R35" t="n">
         <v>2463.225281005195</v>
@@ -6970,19 +6970,19 @@
         <v>2463.225281005195</v>
       </c>
       <c r="U35" t="n">
-        <v>2463.225281005195</v>
+        <v>2208.4604904075</v>
       </c>
       <c r="V35" t="n">
-        <v>2126.246006901137</v>
+        <v>1871.481216303441</v>
       </c>
       <c r="W35" t="n">
-        <v>1763.711076758738</v>
+        <v>1508.946286161042</v>
       </c>
       <c r="X35" t="n">
-        <v>1763.711076758738</v>
+        <v>1126.916145682536</v>
       </c>
       <c r="Y35" t="n">
-        <v>1763.711076758738</v>
+        <v>1126.916145682536</v>
       </c>
     </row>
     <row r="36">
@@ -7007,34 +7007,34 @@
         <v>309.9625107582714</v>
       </c>
       <c r="G36" t="n">
-        <v>182.0402311485996</v>
+        <v>182.0402311485991</v>
       </c>
       <c r="H36" t="n">
-        <v>89.88876513490223</v>
+        <v>89.88876513490231</v>
       </c>
       <c r="I36" t="n">
         <v>49.26450562010391</v>
       </c>
       <c r="J36" t="n">
-        <v>180.3946628015787</v>
+        <v>49.26450562010391</v>
       </c>
       <c r="K36" t="n">
-        <v>197.1146448436832</v>
+        <v>65.98448766220841</v>
       </c>
       <c r="L36" t="n">
-        <v>734.5053131673491</v>
+        <v>603.3751559858742</v>
       </c>
       <c r="M36" t="n">
-        <v>820.3889738729293</v>
+        <v>1213.02341303466</v>
       </c>
       <c r="N36" t="n">
-        <v>1430.037230921715</v>
+        <v>1312.887182678354</v>
       </c>
       <c r="O36" t="n">
-        <v>2010.240291484891</v>
+        <v>1893.09024324153</v>
       </c>
       <c r="P36" t="n">
-        <v>2463.225281005195</v>
+        <v>2204.588303697918</v>
       </c>
       <c r="Q36" t="n">
         <v>2463.225281005195</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1359.035950936532</v>
+        <v>355.6996067819289</v>
       </c>
       <c r="C37" t="n">
-        <v>1359.035950936532</v>
+        <v>355.6996067819289</v>
       </c>
       <c r="D37" t="n">
-        <v>1359.035950936532</v>
+        <v>202.6277136096916</v>
       </c>
       <c r="E37" t="n">
-        <v>1359.035950936532</v>
+        <v>202.6277136096916</v>
       </c>
       <c r="F37" t="n">
-        <v>1359.035950936532</v>
+        <v>202.6277136096916</v>
       </c>
       <c r="G37" t="n">
-        <v>1359.035950936532</v>
+        <v>202.6277136096916</v>
       </c>
       <c r="H37" t="n">
-        <v>1359.035950936532</v>
+        <v>49.26450562010391</v>
       </c>
       <c r="I37" t="n">
-        <v>1359.035950936532</v>
+        <v>49.26450562010391</v>
       </c>
       <c r="J37" t="n">
-        <v>1359.035950936532</v>
+        <v>49.26450562010391</v>
       </c>
       <c r="K37" t="n">
-        <v>1469.605655775707</v>
+        <v>159.8342104592787</v>
       </c>
       <c r="L37" t="n">
-        <v>1668.702098756871</v>
+        <v>358.9306534404433</v>
       </c>
       <c r="M37" t="n">
-        <v>1890.538829552783</v>
+        <v>580.7673842363552</v>
       </c>
       <c r="N37" t="n">
-        <v>2110.335236189101</v>
+        <v>800.5637908726728</v>
       </c>
       <c r="O37" t="n">
-        <v>2302.43423947554</v>
+        <v>992.6627941591116</v>
       </c>
       <c r="P37" t="n">
-        <v>2445.523946945903</v>
+        <v>1135.752501629475</v>
       </c>
       <c r="Q37" t="n">
-        <v>2463.225281005195</v>
+        <v>1153.453835688767</v>
       </c>
       <c r="R37" t="n">
-        <v>2463.225281005195</v>
+        <v>1153.453835688767</v>
       </c>
       <c r="S37" t="n">
-        <v>2463.225281005195</v>
+        <v>1153.453835688767</v>
       </c>
       <c r="T37" t="n">
-        <v>2232.934298678374</v>
+        <v>1153.453835688767</v>
       </c>
       <c r="U37" t="n">
-        <v>1945.780926880549</v>
+        <v>1153.453835688767</v>
       </c>
       <c r="V37" t="n">
-        <v>1685.045622438971</v>
+        <v>892.7185312471895</v>
       </c>
       <c r="W37" t="n">
-        <v>1398.889220956371</v>
+        <v>606.5621297645887</v>
       </c>
       <c r="X37" t="n">
-        <v>1359.035950936532</v>
+        <v>539.2549754663087</v>
       </c>
       <c r="Y37" t="n">
-        <v>1359.035950936532</v>
+        <v>539.2549754663087</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1126.916145682536</v>
+        <v>1272.798581645758</v>
       </c>
       <c r="C38" t="n">
-        <v>1126.916145682536</v>
+        <v>1272.798581645758</v>
       </c>
       <c r="D38" t="n">
-        <v>1126.916145682536</v>
+        <v>1272.798581645758</v>
       </c>
       <c r="E38" t="n">
-        <v>732.1304257886425</v>
+        <v>878.0128617518644</v>
       </c>
       <c r="F38" t="n">
-        <v>317.9792350988128</v>
+        <v>463.8616710620348</v>
       </c>
       <c r="G38" t="n">
         <v>49.26450562010391</v>
@@ -7180,16 +7180,16 @@
         <v>60.08872810826159</v>
       </c>
       <c r="L38" t="n">
-        <v>103.4998147576224</v>
+        <v>641.029797884052</v>
       </c>
       <c r="M38" t="n">
-        <v>713.1480718064083</v>
+        <v>1250.678054932838</v>
       </c>
       <c r="N38" t="n">
-        <v>1322.796328855194</v>
+        <v>1860.326311981624</v>
       </c>
       <c r="O38" t="n">
-        <v>1764.849079756979</v>
+        <v>1924.071207590954</v>
       </c>
       <c r="P38" t="n">
         <v>2205.376747588057</v>
@@ -7204,22 +7204,22 @@
         <v>2463.225281005195</v>
       </c>
       <c r="T38" t="n">
-        <v>2463.225281005195</v>
+        <v>2245.462444118446</v>
       </c>
       <c r="U38" t="n">
-        <v>2208.4604904075</v>
+        <v>2245.462444118446</v>
       </c>
       <c r="V38" t="n">
-        <v>1871.481216303441</v>
+        <v>2245.462444118446</v>
       </c>
       <c r="W38" t="n">
-        <v>1508.946286161042</v>
+        <v>2048.872261642283</v>
       </c>
       <c r="X38" t="n">
-        <v>1126.916145682536</v>
+        <v>1666.842121163777</v>
       </c>
       <c r="Y38" t="n">
-        <v>1126.916145682536</v>
+        <v>1666.842121163777</v>
       </c>
     </row>
     <row r="39">
@@ -7229,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>892.2266285203585</v>
+        <v>892.2266285203598</v>
       </c>
       <c r="C39" t="n">
-        <v>730.5229557613133</v>
+        <v>730.5229557613145</v>
       </c>
       <c r="D39" t="n">
-        <v>591.6843187515253</v>
+        <v>591.6843187515266</v>
       </c>
       <c r="E39" t="n">
-        <v>444.6563088083966</v>
+        <v>444.6563088083978</v>
       </c>
       <c r="F39" t="n">
-        <v>309.9625107582709</v>
+        <v>309.9625107582722</v>
       </c>
       <c r="G39" t="n">
-        <v>182.0402311485991</v>
+        <v>182.0402311486003</v>
       </c>
       <c r="H39" t="n">
-        <v>89.88876513490223</v>
+        <v>89.88876513490344</v>
       </c>
       <c r="I39" t="n">
         <v>49.26450562010391</v>
       </c>
       <c r="J39" t="n">
-        <v>66.49164969797216</v>
+        <v>49.26450562010391</v>
       </c>
       <c r="K39" t="n">
-        <v>83.21163174007665</v>
+        <v>183.1345359055701</v>
       </c>
       <c r="L39" t="n">
-        <v>620.6023000637425</v>
+        <v>720.525204229236</v>
       </c>
       <c r="M39" t="n">
-        <v>1230.250557112528</v>
+        <v>1330.173461278022</v>
       </c>
       <c r="N39" t="n">
-        <v>1839.898814161314</v>
+        <v>1430.037230921715</v>
       </c>
       <c r="O39" t="n">
-        <v>2420.10187472449</v>
+        <v>2010.240291484891</v>
       </c>
       <c r="P39" t="n">
         <v>2463.225281005195</v>
@@ -7277,28 +7277,28 @@
         <v>2463.225281005195</v>
       </c>
       <c r="R39" t="n">
-        <v>2453.49739594167</v>
+        <v>2453.497395941672</v>
       </c>
       <c r="S39" t="n">
-        <v>2315.673098666821</v>
+        <v>2315.673098666822</v>
       </c>
       <c r="T39" t="n">
-        <v>2130.23762868067</v>
+        <v>2130.237628680672</v>
       </c>
       <c r="U39" t="n">
-        <v>1911.795877092602</v>
+        <v>1911.795877092603</v>
       </c>
       <c r="V39" t="n">
-        <v>1683.400254540936</v>
+        <v>1683.400254540937</v>
       </c>
       <c r="W39" t="n">
-        <v>1442.084385774246</v>
+        <v>1442.084385774247</v>
       </c>
       <c r="X39" t="n">
-        <v>1244.167397652041</v>
+        <v>1244.167397652042</v>
       </c>
       <c r="Y39" t="n">
-        <v>1051.646071301619</v>
+        <v>1051.646071301621</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1482.91259619213</v>
+        <v>341.3849914348195</v>
       </c>
       <c r="C40" t="n">
-        <v>1482.91259619213</v>
+        <v>341.3849914348195</v>
       </c>
       <c r="D40" t="n">
-        <v>1482.91259619213</v>
+        <v>341.3849914348195</v>
       </c>
       <c r="E40" t="n">
-        <v>1482.91259619213</v>
+        <v>341.3849914348195</v>
       </c>
       <c r="F40" t="n">
-        <v>1482.91259619213</v>
+        <v>341.3849914348195</v>
       </c>
       <c r="G40" t="n">
-        <v>1482.91259619213</v>
+        <v>173.1411508757015</v>
       </c>
       <c r="H40" t="n">
-        <v>1482.91259619213</v>
+        <v>173.1411508757015</v>
       </c>
       <c r="I40" t="n">
-        <v>1359.035950936532</v>
+        <v>49.26450562010391</v>
       </c>
       <c r="J40" t="n">
-        <v>1359.035950936532</v>
+        <v>49.26450562010391</v>
       </c>
       <c r="K40" t="n">
-        <v>1469.605655775707</v>
+        <v>159.8342104592787</v>
       </c>
       <c r="L40" t="n">
-        <v>1668.702098756871</v>
+        <v>358.9306534404433</v>
       </c>
       <c r="M40" t="n">
-        <v>1890.538829552783</v>
+        <v>580.7673842363552</v>
       </c>
       <c r="N40" t="n">
-        <v>2110.335236189101</v>
+        <v>800.5637908726728</v>
       </c>
       <c r="O40" t="n">
-        <v>2302.43423947554</v>
+        <v>992.6627941591116</v>
       </c>
       <c r="P40" t="n">
-        <v>2445.523946945903</v>
+        <v>1135.752501629475</v>
       </c>
       <c r="Q40" t="n">
-        <v>2463.225281005195</v>
+        <v>1153.453835688767</v>
       </c>
       <c r="R40" t="n">
-        <v>2463.225281005195</v>
+        <v>1153.453835688767</v>
       </c>
       <c r="S40" t="n">
-        <v>2463.225281005195</v>
+        <v>951.5233074197474</v>
       </c>
       <c r="T40" t="n">
-        <v>2316.957673914133</v>
+        <v>721.2323250929263</v>
       </c>
       <c r="U40" t="n">
-        <v>2029.804302116308</v>
+        <v>434.0789532951007</v>
       </c>
       <c r="V40" t="n">
-        <v>1769.068997674731</v>
+        <v>341.3849914348195</v>
       </c>
       <c r="W40" t="n">
-        <v>1482.91259619213</v>
+        <v>341.3849914348195</v>
       </c>
       <c r="X40" t="n">
-        <v>1482.91259619213</v>
+        <v>341.3849914348195</v>
       </c>
       <c r="Y40" t="n">
-        <v>1482.91259619213</v>
+        <v>341.3849914348195</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2344.945847858295</v>
+        <v>1062.233368153128</v>
       </c>
       <c r="C41" t="n">
-        <v>1963.012089191102</v>
+        <v>1062.233368153128</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.188124418326</v>
+        <v>1062.233368153128</v>
       </c>
       <c r="E41" t="n">
-        <v>1195.402404524433</v>
+        <v>1062.233368153128</v>
       </c>
       <c r="F41" t="n">
-        <v>781.2512138346028</v>
+        <v>648.082177463298</v>
       </c>
       <c r="G41" t="n">
         <v>366.6540483926719</v>
@@ -7411,52 +7411,52 @@
         <v>49.26450562010391</v>
       </c>
       <c r="J41" t="n">
-        <v>246.6076053608977</v>
+        <v>68.02134050906868</v>
       </c>
       <c r="K41" t="n">
-        <v>674.6069738281444</v>
+        <v>78.84556299722635</v>
       </c>
       <c r="L41" t="n">
-        <v>1061.933116405517</v>
+        <v>659.7866327730168</v>
       </c>
       <c r="M41" t="n">
-        <v>1135.967732647177</v>
+        <v>1269.434889821803</v>
       </c>
       <c r="N41" t="n">
-        <v>1214.949025688238</v>
+        <v>1879.083146870589</v>
       </c>
       <c r="O41" t="n">
-        <v>1768.783754582722</v>
+        <v>2432.917875765072</v>
       </c>
       <c r="P41" t="n">
-        <v>2209.3114224138</v>
+        <v>2459.290606179452</v>
       </c>
       <c r="Q41" t="n">
-        <v>2463.225281005195</v>
+        <v>2459.290606179452</v>
       </c>
       <c r="R41" t="n">
         <v>2463.225281005195</v>
       </c>
       <c r="S41" t="n">
-        <v>2463.225281005195</v>
+        <v>2310.332991540241</v>
       </c>
       <c r="T41" t="n">
-        <v>2463.225281005195</v>
+        <v>2092.570154653492</v>
       </c>
       <c r="U41" t="n">
-        <v>2463.225281005195</v>
+        <v>1837.805364055796</v>
       </c>
       <c r="V41" t="n">
-        <v>2463.225281005195</v>
+        <v>1837.805364055796</v>
       </c>
       <c r="W41" t="n">
-        <v>2463.225281005195</v>
+        <v>1837.805364055796</v>
       </c>
       <c r="X41" t="n">
-        <v>2463.225281005195</v>
+        <v>1455.77522357729</v>
       </c>
       <c r="Y41" t="n">
-        <v>2463.225281005195</v>
+        <v>1062.233368153128</v>
       </c>
     </row>
     <row r="42">
@@ -7493,22 +7493,22 @@
         <v>49.26450562010391</v>
       </c>
       <c r="K42" t="n">
-        <v>406.3512476973971</v>
+        <v>183.1345359055701</v>
       </c>
       <c r="L42" t="n">
-        <v>943.7419160210629</v>
+        <v>720.525204229236</v>
       </c>
       <c r="M42" t="n">
-        <v>1553.390173069849</v>
+        <v>1330.173461278022</v>
       </c>
       <c r="N42" t="n">
-        <v>1678.301058523589</v>
+        <v>1430.037230921715</v>
       </c>
       <c r="O42" t="n">
-        <v>1751.603314177614</v>
+        <v>2010.240291484891</v>
       </c>
       <c r="P42" t="n">
-        <v>2204.588303697918</v>
+        <v>2463.225281005195</v>
       </c>
       <c r="Q42" t="n">
         <v>2463.225281005195</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>218.8804751584236</v>
+        <v>816.8448239369499</v>
       </c>
       <c r="C43" t="n">
-        <v>49.26450562010391</v>
+        <v>647.2288543986301</v>
       </c>
       <c r="D43" t="n">
-        <v>49.26450562010391</v>
+        <v>647.2288543986301</v>
       </c>
       <c r="E43" t="n">
-        <v>49.26450562010391</v>
+        <v>647.2288543986301</v>
       </c>
       <c r="F43" t="n">
-        <v>49.26450562010391</v>
+        <v>494.7481994244073</v>
       </c>
       <c r="G43" t="n">
-        <v>49.26450562010391</v>
+        <v>326.5043588652892</v>
       </c>
       <c r="H43" t="n">
-        <v>49.26450562010391</v>
+        <v>173.1411508757015</v>
       </c>
       <c r="I43" t="n">
         <v>49.26450562010391</v>
@@ -7593,28 +7593,28 @@
         <v>1153.453835688767</v>
       </c>
       <c r="R43" t="n">
-        <v>1153.453835688767</v>
+        <v>1034.323339114199</v>
       </c>
       <c r="S43" t="n">
-        <v>1153.453835688767</v>
+        <v>1034.323339114199</v>
       </c>
       <c r="T43" t="n">
-        <v>923.1628533619458</v>
+        <v>816.8448239369499</v>
       </c>
       <c r="U43" t="n">
-        <v>688.5922453254043</v>
+        <v>816.8448239369499</v>
       </c>
       <c r="V43" t="n">
-        <v>688.5922453254043</v>
+        <v>816.8448239369499</v>
       </c>
       <c r="W43" t="n">
-        <v>402.4358438428035</v>
+        <v>816.8448239369499</v>
       </c>
       <c r="X43" t="n">
-        <v>402.4358438428035</v>
+        <v>816.8448239369499</v>
       </c>
       <c r="Y43" t="n">
-        <v>402.4358438428035</v>
+        <v>816.8448239369499</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1310.127882708259</v>
+        <v>1138.291159809339</v>
       </c>
       <c r="C44" t="n">
-        <v>1310.127882708259</v>
+        <v>1138.291159809339</v>
       </c>
       <c r="D44" t="n">
-        <v>1310.127882708259</v>
+        <v>1138.291159809339</v>
       </c>
       <c r="E44" t="n">
-        <v>1310.127882708259</v>
+        <v>743.5054399154455</v>
       </c>
       <c r="F44" t="n">
-        <v>895.976692018429</v>
+        <v>743.5054399154455</v>
       </c>
       <c r="G44" t="n">
-        <v>481.3795265764981</v>
+        <v>366.6540483926719</v>
       </c>
       <c r="H44" t="n">
-        <v>163.9899838039301</v>
+        <v>49.26450562010391</v>
       </c>
       <c r="I44" t="n">
         <v>49.26450562010391</v>
       </c>
       <c r="J44" t="n">
-        <v>246.6076053608977</v>
+        <v>49.26450562010391</v>
       </c>
       <c r="K44" t="n">
-        <v>674.6069738281444</v>
+        <v>60.08872810826159</v>
       </c>
       <c r="L44" t="n">
-        <v>1057.998441579774</v>
+        <v>641.029797884052</v>
       </c>
       <c r="M44" t="n">
-        <v>1132.033057821434</v>
+        <v>1250.678054932838</v>
       </c>
       <c r="N44" t="n">
-        <v>1211.014350862495</v>
+        <v>1860.326311981624</v>
       </c>
       <c r="O44" t="n">
-        <v>1764.849079756979</v>
+        <v>2414.161040876108</v>
       </c>
       <c r="P44" t="n">
-        <v>2205.376747588057</v>
+        <v>2459.290606179452</v>
       </c>
       <c r="Q44" t="n">
         <v>2459.290606179452</v>
@@ -7681,19 +7681,19 @@
         <v>2092.570154653492</v>
       </c>
       <c r="U44" t="n">
-        <v>2092.570154653492</v>
+        <v>1837.805364055796</v>
       </c>
       <c r="V44" t="n">
-        <v>2092.570154653492</v>
+        <v>1500.826089951738</v>
       </c>
       <c r="W44" t="n">
-        <v>1730.035224511093</v>
+        <v>1138.291159809339</v>
       </c>
       <c r="X44" t="n">
-        <v>1704.171422226278</v>
+        <v>1138.291159809339</v>
       </c>
       <c r="Y44" t="n">
-        <v>1704.171422226278</v>
+        <v>1138.291159809339</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>892.2266285203585</v>
+        <v>892.226628520359</v>
       </c>
       <c r="C45" t="n">
-        <v>730.5229557613133</v>
+        <v>730.5229557613138</v>
       </c>
       <c r="D45" t="n">
-        <v>591.6843187515253</v>
+        <v>591.6843187515258</v>
       </c>
       <c r="E45" t="n">
-        <v>444.6563088083966</v>
+        <v>444.6563088083969</v>
       </c>
       <c r="F45" t="n">
-        <v>309.9625107582709</v>
+        <v>309.9625107582714</v>
       </c>
       <c r="G45" t="n">
-        <v>182.0402311485991</v>
+        <v>182.0402311485996</v>
       </c>
       <c r="H45" t="n">
         <v>89.88876513490223</v>
@@ -7727,37 +7727,37 @@
         <v>49.26450562010391</v>
       </c>
       <c r="J45" t="n">
-        <v>184.1730106937741</v>
+        <v>49.26450562010391</v>
       </c>
       <c r="K45" t="n">
-        <v>541.2597527710673</v>
+        <v>83.21163174007665</v>
       </c>
       <c r="L45" t="n">
-        <v>1078.650421094733</v>
+        <v>620.6023000637425</v>
       </c>
       <c r="M45" t="n">
-        <v>1164.534081800314</v>
+        <v>1230.250557112528</v>
       </c>
       <c r="N45" t="n">
-        <v>1264.397851444007</v>
+        <v>1839.898814161314</v>
       </c>
       <c r="O45" t="n">
-        <v>1751.603314177614</v>
+        <v>2420.10187472449</v>
       </c>
       <c r="P45" t="n">
-        <v>2204.588303697918</v>
+        <v>2463.225281005195</v>
       </c>
       <c r="Q45" t="n">
         <v>2463.225281005195</v>
       </c>
       <c r="R45" t="n">
-        <v>2453.49739594167</v>
+        <v>2453.497395941671</v>
       </c>
       <c r="S45" t="n">
-        <v>2315.673098666821</v>
+        <v>2315.673098666822</v>
       </c>
       <c r="T45" t="n">
-        <v>2130.23762868067</v>
+        <v>2130.237628680671</v>
       </c>
       <c r="U45" t="n">
         <v>1911.795877092602</v>
@@ -7766,13 +7766,13 @@
         <v>1683.400254540936</v>
       </c>
       <c r="W45" t="n">
-        <v>1442.084385774246</v>
+        <v>1442.084385774247</v>
       </c>
       <c r="X45" t="n">
         <v>1244.167397652041</v>
       </c>
       <c r="Y45" t="n">
-        <v>1051.646071301619</v>
+        <v>1051.64607130162</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>969.8984670043872</v>
+        <v>799.2378686373113</v>
       </c>
       <c r="C46" t="n">
-        <v>800.2824974660674</v>
+        <v>799.2378686373113</v>
       </c>
       <c r="D46" t="n">
-        <v>647.2106042938301</v>
+        <v>799.2378686373113</v>
       </c>
       <c r="E46" t="n">
-        <v>495.2015900551489</v>
+        <v>647.2288543986301</v>
       </c>
       <c r="F46" t="n">
-        <v>342.720935080926</v>
+        <v>494.7481994244073</v>
       </c>
       <c r="G46" t="n">
-        <v>174.477094521808</v>
+        <v>326.5043588652892</v>
       </c>
       <c r="H46" t="n">
-        <v>49.26450562010391</v>
+        <v>173.1411508757015</v>
       </c>
       <c r="I46" t="n">
         <v>49.26450562010391</v>
@@ -7830,28 +7830,28 @@
         <v>1153.453835688767</v>
       </c>
       <c r="R46" t="n">
-        <v>1153.453835688767</v>
+        <v>1034.323339114199</v>
       </c>
       <c r="S46" t="n">
-        <v>1153.453835688767</v>
+        <v>832.3928108451796</v>
       </c>
       <c r="T46" t="n">
-        <v>1153.453835688767</v>
+        <v>799.2378686373113</v>
       </c>
       <c r="U46" t="n">
-        <v>1153.453835688767</v>
+        <v>799.2378686373113</v>
       </c>
       <c r="V46" t="n">
-        <v>1153.453835688767</v>
+        <v>799.2378686373113</v>
       </c>
       <c r="W46" t="n">
-        <v>1153.453835688767</v>
+        <v>799.2378686373113</v>
       </c>
       <c r="X46" t="n">
-        <v>1153.453835688767</v>
+        <v>799.2378686373113</v>
       </c>
       <c r="Y46" t="n">
-        <v>1153.453835688767</v>
+        <v>799.2378686373113</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>219.8255997236959</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K2" t="n">
-        <v>178.8230039740467</v>
+        <v>314.5524032714785</v>
       </c>
       <c r="L2" t="n">
         <v>191.5602121631146</v>
@@ -7990,16 +7990,16 @@
         <v>322.8857137945909</v>
       </c>
       <c r="N2" t="n">
-        <v>322.1275134696619</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O2" t="n">
-        <v>284.8176621111053</v>
+        <v>317.2001799443227</v>
       </c>
       <c r="P2" t="n">
-        <v>187.8768090511565</v>
+        <v>323.6062083485883</v>
       </c>
       <c r="Q2" t="n">
-        <v>276.0094878578761</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8057,22 +8057,22 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
         <v>247.7255684640984</v>
       </c>
       <c r="L3" t="n">
-        <v>242.82081673535</v>
+        <v>248.3048328685796</v>
       </c>
       <c r="M3" t="n">
-        <v>115.4839025616399</v>
+        <v>184.8665114499772</v>
       </c>
       <c r="N3" t="n">
         <v>106.7151410677083</v>
       </c>
       <c r="O3" t="n">
-        <v>251.5888479085429</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P3" t="n">
         <v>108.8542060241433</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K5" t="n">
-        <v>178.8230039740467</v>
+        <v>314.5524032714785</v>
       </c>
       <c r="L5" t="n">
-        <v>191.5602121631146</v>
+        <v>327.2896114605464</v>
       </c>
       <c r="M5" t="n">
-        <v>322.8857137945909</v>
+        <v>244.675895365598</v>
       </c>
       <c r="N5" t="n">
-        <v>221.2573825015464</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O5" t="n">
-        <v>322.6841960775522</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P5" t="n">
         <v>323.6062083485883</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.0094878578761</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8294,7 +8294,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K6" t="n">
         <v>111.9961691666667</v>
@@ -8303,13 +8303,13 @@
         <v>112.5754335711478</v>
       </c>
       <c r="M6" t="n">
-        <v>251.2133018590717</v>
+        <v>184.8665114499773</v>
       </c>
       <c r="N6" t="n">
-        <v>236.9605242319105</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O6" t="n">
-        <v>115.8594486111111</v>
+        <v>251.5888479085429</v>
       </c>
       <c r="P6" t="n">
         <v>244.5836053215751</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>147.0997974279326</v>
+        <v>181.9590657572489</v>
       </c>
       <c r="K8" t="n">
         <v>178.8230039740467</v>
       </c>
       <c r="L8" t="n">
-        <v>321.805595327317</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M8" t="n">
         <v>322.8857137945909</v>
@@ -8467,13 +8467,13 @@
         <v>322.1275134696619</v>
       </c>
       <c r="O8" t="n">
-        <v>322.6841960775523</v>
+        <v>322.6841960775522</v>
       </c>
       <c r="P8" t="n">
         <v>187.8768090511565</v>
       </c>
       <c r="Q8" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8534,25 +8534,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
-        <v>247.7255684640985</v>
+        <v>247.7255684640984</v>
       </c>
       <c r="L9" t="n">
         <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
-        <v>115.4839025616399</v>
+        <v>251.2133018590717</v>
       </c>
       <c r="N9" t="n">
-        <v>106.7151410677083</v>
+        <v>176.0977499560457</v>
       </c>
       <c r="O9" t="n">
-        <v>251.5888479085429</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P9" t="n">
         <v>244.5836053215751</v>
       </c>
       <c r="Q9" t="n">
-        <v>183.11780033323</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>20.48913533905569</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K11" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
-        <v>542.9595789155856</v>
+        <v>343.4145263659274</v>
       </c>
       <c r="M11" t="n">
-        <v>541.0238796031567</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>210.2864129152078</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>19.5308428160628</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8774,22 +8774,22 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>134.4711277557252</v>
+        <v>317.1518211253415</v>
       </c>
       <c r="N12" t="n">
         <v>514.9338256617095</v>
       </c>
       <c r="O12" t="n">
-        <v>512.0210150597484</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>11.8510020290509</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>20.48913533905569</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>343.4145263659274</v>
       </c>
       <c r="M14" t="n">
-        <v>541.0238796031567</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>536.0272363714395</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
-        <v>160.0476832567756</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9005,28 +9005,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>27.64712869639993</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>529.0551478214198</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>514.9338256617095</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>253.7082122401851</v>
+        <v>418.0840475551328</v>
       </c>
       <c r="P15" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>11.8510020290509</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>219.8255997236959</v>
+        <v>20.48913533905569</v>
       </c>
       <c r="K17" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
-        <v>541.0238796031567</v>
+        <v>3.765830850883944</v>
       </c>
       <c r="N17" t="n">
-        <v>536.0272363714395</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P17" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q17" t="n">
-        <v>41.38755290667861</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R17" t="n">
         <v>81.45692681897516</v>
@@ -9242,19 +9242,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>27.64712869639993</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>529.0551478214198</v>
+        <v>320.0646317273025</v>
       </c>
       <c r="N18" t="n">
-        <v>271.0855092683668</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>20.48913533905569</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L20" t="n">
-        <v>542.9595789155856</v>
+        <v>297.43088240434</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>541.0238796031567</v>
       </c>
       <c r="N20" t="n">
-        <v>260.2444758926978</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>495.0402356415689</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>19.5308428160628</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R20" t="n">
-        <v>81.45692681897516</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,19 +9482,19 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>249.8678406117371</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>512.0210150597484</v>
+        <v>418.0840475551332</v>
       </c>
       <c r="P21" t="n">
         <v>414.0015992319183</v>
@@ -9643,10 +9643,10 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L23" t="n">
-        <v>347.3889453818299</v>
+        <v>477.2076124275119</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>541.0238796031567</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9655,13 +9655,13 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P23" t="n">
-        <v>418.3383206229274</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>276.0094878578761</v>
+        <v>19.5308428160628</v>
       </c>
       <c r="R23" t="n">
-        <v>81.45692681897516</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9722,22 +9722,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>482.0924488944969</v>
+        <v>339.1763589309444</v>
       </c>
       <c r="M24" t="n">
         <v>529.0551478214198</v>
       </c>
       <c r="N24" t="n">
-        <v>514.9338256617095</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>115.4205714620389</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>11.8510020290509</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>20.48913533905569</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L26" t="n">
-        <v>542.9595789155856</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>541.0238796031567</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>536.0272363714395</v>
+        <v>347.3889453818298</v>
       </c>
       <c r="O26" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q26" t="n">
-        <v>42.45155969960622</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R26" t="n">
         <v>81.45692681897516</v>
@@ -9959,22 +9959,22 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
-        <v>482.0924488944969</v>
+        <v>388.1554813898819</v>
       </c>
       <c r="M27" t="n">
-        <v>164.3996939209765</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>514.9338256617095</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>11.8510020290509</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>20.48913533905569</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K29" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L29" t="n">
-        <v>429.0364940179582</v>
+        <v>343.4145263659278</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>536.0272363714394</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q29" t="n">
         <v>276.0094878578761</v>
       </c>
       <c r="R29" t="n">
-        <v>81.45692681897516</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>45.04828433061029</v>
+        <v>27.64712869639993</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>118.3333820640018</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
@@ -10202,13 +10202,13 @@
         <v>529.0551478214198</v>
       </c>
       <c r="N30" t="n">
-        <v>514.9338256617095</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
         <v>11.8510020290509</v>
@@ -10351,28 +10351,28 @@
         <v>20.48913533905569</v>
       </c>
       <c r="K32" t="n">
-        <v>421.3890363425141</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>541.0238796031567</v>
       </c>
       <c r="N32" t="n">
-        <v>418.1297324579097</v>
+        <v>536.0272363714395</v>
       </c>
       <c r="O32" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>22.92071688354326</v>
       </c>
       <c r="Q32" t="n">
-        <v>276.0094878578761</v>
+        <v>19.5308428160628</v>
       </c>
       <c r="R32" t="n">
-        <v>85.43134583487716</v>
+        <v>81.45692681897516</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,28 +10427,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>27.64712869639993</v>
       </c>
       <c r="K33" t="n">
-        <v>343.8048081163522</v>
+        <v>17.40115563420898</v>
       </c>
       <c r="L33" t="n">
-        <v>388.1554813898814</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>529.0551478214198</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>514.9338256617095</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
-        <v>414.0015992319183</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>273.1004740566038</v>
+        <v>11.8510020290509</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10588,7 +10588,7 @@
         <v>20.48913533905569</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>95.64821288628258</v>
       </c>
       <c r="L35" t="n">
         <v>542.9595789155856</v>
@@ -10597,19 +10597,19 @@
         <v>541.0238796031567</v>
       </c>
       <c r="N35" t="n">
-        <v>536.0272363714395</v>
+        <v>536.0272363714394</v>
       </c>
       <c r="O35" t="n">
-        <v>495.0402356415689</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
-        <v>42.45155969960622</v>
+        <v>19.5308428160628</v>
       </c>
       <c r="R35" t="n">
-        <v>81.45692681897516</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1018329201119</v>
+        <v>27.64712869639993</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10673,19 +10673,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>529.0551478214198</v>
       </c>
       <c r="N36" t="n">
-        <v>514.9338256617095</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>414.0015992319183</v>
+        <v>271.085509268367</v>
       </c>
       <c r="Q36" t="n">
-        <v>11.8510020290509</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10828,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M38" t="n">
         <v>541.0238796031567</v>
@@ -10837,10 +10837,10 @@
         <v>536.0272363714395</v>
       </c>
       <c r="O38" t="n">
-        <v>382.1291467600549</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>418.3383206229274</v>
+        <v>257.5078884673969</v>
       </c>
       <c r="Q38" t="n">
         <v>276.0094878578761</v>
@@ -10901,10 +10901,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>45.04828433061029</v>
+        <v>27.64712869639993</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>118.3333820640018</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10913,13 +10913,13 @@
         <v>529.0551478214198</v>
       </c>
       <c r="N39" t="n">
-        <v>514.9338256617095</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
         <v>11.8510020290509</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>219.8255997236959</v>
+        <v>39.43543320669687</v>
       </c>
       <c r="K41" t="n">
-        <v>421.3890363425141</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>347.3889453818299</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>541.0238796031567</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>536.0272363714394</v>
       </c>
       <c r="O41" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P41" t="n">
-        <v>418.3383206229274</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>276.0094878578761</v>
+        <v>19.5308428160628</v>
       </c>
       <c r="R41" t="n">
-        <v>81.45692681897516</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>27.64712869639993</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>118.3333820640018</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11150,16 +11150,16 @@
         <v>529.0551478214198</v>
       </c>
       <c r="N42" t="n">
-        <v>25.30011697984467</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>273.1004740566038</v>
+        <v>11.8510020290509</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>219.8255997236959</v>
+        <v>20.48913533905569</v>
       </c>
       <c r="K44" t="n">
-        <v>421.3890363425141</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>343.4145263659278</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>541.0238796031567</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>536.0272363714395</v>
       </c>
       <c r="O44" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P44" t="n">
-        <v>418.3383206229274</v>
+        <v>18.94629786764119</v>
       </c>
       <c r="Q44" t="n">
-        <v>276.0094878578761</v>
+        <v>19.5308428160628</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11375,28 +11375,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425315</v>
+        <v>27.64712869639993</v>
       </c>
       <c r="K45" t="n">
-        <v>343.8048081163522</v>
+        <v>17.40115563421035</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>529.0551478214198</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>514.9338256617095</v>
       </c>
       <c r="O45" t="n">
-        <v>418.0840475551332</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>414.0015992319183</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>273.1004740566038</v>
+        <v>11.8510020290509</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23260,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>369.0957251250487</v>
+        <v>305.3361511377407</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>258.5402602837308</v>
+        <v>314.2156473448423</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>113.5782234019879</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>252.2171426917185</v>
       </c>
       <c r="V11" t="n">
         <v>333.6094813630181</v>
@@ -23326,7 +23326,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y11" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23427,19 +23427,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5614021535269</v>
       </c>
       <c r="H13" t="n">
-        <v>12.92642229014822</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>122.6378788030416</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>12.14783244424505</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23469,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9880725035529</v>
+        <v>46.73948436556856</v>
       </c>
       <c r="U13" t="n">
         <v>284.2818380798474</v>
       </c>
       <c r="V13" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>283.2948374677749</v>
@@ -23500,22 +23500,22 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>17.67795736297643</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>209.509095548083</v>
       </c>
       <c r="H14" t="n">
-        <v>314.2156473448423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>113.5782234019879</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>151.3633665703049</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>215.5852085178816</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>252.2171426917185</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y14" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
-        <v>27.86911289700481</v>
+        <v>166.5614021535269</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>151.8295759096918</v>
       </c>
       <c r="I16" t="n">
         <v>122.6378788030416</v>
@@ -23703,25 +23703,25 @@
         <v>117.9391916088222</v>
       </c>
       <c r="S16" t="n">
-        <v>199.9112229863294</v>
+        <v>123.095208449199</v>
       </c>
       <c r="T16" t="n">
         <v>227.9880725035529</v>
       </c>
       <c r="U16" t="n">
-        <v>284.2818380798474</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W16" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>369.0957251250487</v>
+        <v>273.0947964239509</v>
       </c>
       <c r="E17" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.4511937875116</v>
       </c>
       <c r="H17" t="n">
         <v>314.2156473448423</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>151.3633665703049</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>215.5852085178816</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>111.296928076145</v>
+        <v>252.2171426917185</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23898,16 +23898,16 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>166.5614021535269</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>151.8295759096918</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>122.6378788030416</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>78.48445428918262</v>
+        <v>117.9391916088222</v>
       </c>
       <c r="S19" t="n">
         <v>199.9112229863294</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>227.9880725035529</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>284.2818380798474</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X19" t="n">
-        <v>228.939939463578</v>
+        <v>82.61516347192205</v>
       </c>
       <c r="Y19" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>151.3633665703049</v>
+        <v>58.21132232661553</v>
       </c>
       <c r="T20" t="n">
         <v>215.5852085178816</v>
       </c>
       <c r="U20" t="n">
-        <v>190.1632037366923</v>
+        <v>252.2171426917185</v>
       </c>
       <c r="V20" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>130.8656138989706</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.5614021535269</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>151.8295759096918</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>122.6378788030416</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>12.14783244424505</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>22.14548239084633</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9880725035529</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>284.2818380798474</v>
@@ -24195,7 +24195,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C23" t="n">
-        <v>378.1144210805207</v>
+        <v>45.487880712182</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>46.25541079719147</v>
+        <v>410.4511937875116</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>314.2156473448423</v>
       </c>
       <c r="I23" t="n">
         <v>113.5782234019879</v>
@@ -24268,13 +24268,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>181.719814997536</v>
+        <v>134.0918123939893</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>50.40760477195894</v>
+        <v>117.9391916088222</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>199.9112229863294</v>
       </c>
       <c r="T25" t="n">
         <v>227.9880725035529</v>
@@ -24432,7 +24432,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,19 +24445,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D26" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.4511937875116</v>
       </c>
       <c r="H26" t="n">
         <v>314.2156473448423</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>99.96804024879629</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>215.5852085178816</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>252.2171426917185</v>
+        <v>115.269236181169</v>
       </c>
       <c r="V26" t="n">
         <v>333.6094813630181</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.74991377771975</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C28" t="n">
         <v>167.9198098429365</v>
@@ -24654,10 +24654,10 @@
         <v>199.9112229863294</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9880725035529</v>
+        <v>189.4852021439384</v>
       </c>
       <c r="U28" t="n">
-        <v>284.2818380798474</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="29">
@@ -24685,16 +24685,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.4511937875116</v>
       </c>
       <c r="H29" t="n">
         <v>314.2156473448423</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>151.3633665703049</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>215.5852085178816</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>252.2171426917185</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>292.4002993255831</v>
+        <v>79.68757442593753</v>
       </c>
       <c r="W29" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.9198098429365</v>
@@ -24849,7 +24849,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F31" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.5614021535269</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>78.48445428918262</v>
+        <v>117.9391916088222</v>
       </c>
       <c r="S31" t="n">
-        <v>199.9112229863294</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>284.2818380798474</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X31" t="n">
-        <v>228.939939463578</v>
+        <v>116.1822688271462</v>
       </c>
       <c r="Y31" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>314.2156473448423</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>113.5782234019879</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>151.3633665703049</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>215.5852085178816</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>252.2171426917185</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>333.6094813630181</v>
+        <v>202.0466375239101</v>
       </c>
       <c r="W32" t="n">
-        <v>317.7003988035405</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
         <v>378.2098390737216</v>
@@ -25092,10 +25092,10 @@
         <v>166.5614021535269</v>
       </c>
       <c r="H34" t="n">
-        <v>112.3748385900518</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>122.6378788030416</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>12.14783244424505</v>
@@ -25125,19 +25125,19 @@
         <v>117.9391916088222</v>
       </c>
       <c r="S34" t="n">
-        <v>199.9112229863294</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>284.2818380798474</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>150.6421022995758</v>
       </c>
       <c r="X34" t="n">
         <v>228.939939463578</v>
@@ -25156,22 +25156,22 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E35" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>184.5845606936072</v>
+        <v>144.4236116035898</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>314.2156473448423</v>
       </c>
       <c r="I35" t="n">
         <v>113.5782234019879</v>
@@ -25210,7 +25210,7 @@
         <v>215.5852085178816</v>
       </c>
       <c r="U35" t="n">
-        <v>252.2171426917185</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>389.6064368699203</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D37" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>150.4889240962943</v>
@@ -25329,7 +25329,7 @@
         <v>166.5614021535269</v>
       </c>
       <c r="H37" t="n">
-        <v>151.8295759096918</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>122.6378788030416</v>
@@ -25365,10 +25365,10 @@
         <v>199.9112229863294</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>227.9880725035529</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>284.2818380798474</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>189.485202143938</v>
+        <v>162.3058567082808</v>
       </c>
       <c r="Y37" t="n">
         <v>219.8148072196457</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>378.1144210805207</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>144.4236116035898</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>314.2156473448423</v>
@@ -25444,16 +25444,16 @@
         <v>151.3633665703049</v>
       </c>
       <c r="T38" t="n">
-        <v>215.5852085178816</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>252.2171426917185</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>164.2853001895735</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5614021535269</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>151.8295759096918</v>
@@ -25599,19 +25599,19 @@
         <v>117.9391916088222</v>
       </c>
       <c r="S40" t="n">
-        <v>199.9112229863294</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>83.18314148340147</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>166.3609291554833</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X40" t="n">
         <v>228.939939463578</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>273.0064653074071</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>131.8373460075918</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>151.3633665703049</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>215.5852085178816</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>252.2171426917185</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>333.6094813630181</v>
@@ -25693,10 +25693,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.5614021535269</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>151.8295759096918</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>122.6378788030416</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>12.14783244424505</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>117.9391916088222</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>199.9112229863294</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>12.6843424780761</v>
       </c>
       <c r="U43" t="n">
-        <v>52.05693612367125</v>
+        <v>284.2818380798474</v>
       </c>
       <c r="V43" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X43" t="n">
         <v>228.939939463578</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C44" t="n">
         <v>378.1144210805207</v>
@@ -25873,19 +25873,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>37.36831617996569</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>113.5782234019879</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,16 +25921,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>252.2171426917185</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>352.6046748117546</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y44" t="n">
         <v>389.6064368699203</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>27.86911289700483</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>122.6378788030416</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>12.14783244424505</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>117.9391916088222</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>199.9112229863294</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9880725035529</v>
+        <v>195.1646797177632</v>
       </c>
       <c r="U46" t="n">
         <v>284.2818380798474</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>678158.8238174696</v>
+        <v>678158.8238174694</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>678158.8238174694</v>
+        <v>678158.8238174693</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>678158.8238174694</v>
+        <v>678158.8238174692</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>678158.8238174694</v>
+        <v>678158.8238174693</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>678158.8238174692</v>
+        <v>678158.8238174694</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>678158.8238174692</v>
+        <v>678158.8238174694</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>678158.8238174694</v>
+        <v>678158.8238174693</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>678158.8238174694</v>
+        <v>678158.8238174696</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>460574.4362965091</v>
       </c>
       <c r="C2" t="n">
-        <v>460574.4362965091</v>
+        <v>460574.4362965094</v>
       </c>
       <c r="D2" t="n">
         <v>460574.4362965091</v>
@@ -26325,28 +26325,28 @@
         <v>314239.6624705066</v>
       </c>
       <c r="F2" t="n">
-        <v>314239.6624705066</v>
+        <v>314239.6624705065</v>
       </c>
       <c r="G2" t="n">
         <v>314239.6624705064</v>
       </c>
       <c r="H2" t="n">
-        <v>314239.6624705063</v>
+        <v>314239.6624705064</v>
       </c>
       <c r="I2" t="n">
-        <v>314239.6624705064</v>
+        <v>314239.6624705065</v>
       </c>
       <c r="J2" t="n">
-        <v>314239.6624705065</v>
+        <v>314239.6624705066</v>
       </c>
       <c r="K2" t="n">
         <v>314239.6624705065</v>
       </c>
       <c r="L2" t="n">
-        <v>314239.6624705064</v>
+        <v>314239.6624705065</v>
       </c>
       <c r="M2" t="n">
-        <v>314239.6624705065</v>
+        <v>314239.6624705067</v>
       </c>
       <c r="N2" t="n">
         <v>314239.6624705064</v>
@@ -26355,7 +26355,7 @@
         <v>314239.6624705064</v>
       </c>
       <c r="P2" t="n">
-        <v>314239.6624705066</v>
+        <v>314239.6624705065</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45486.0434807532</v>
+        <v>45486.04348075322</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>355758.3782119924</v>
       </c>
       <c r="E4" t="n">
+        <v>76352.50674675372</v>
+      </c>
+      <c r="F4" t="n">
         <v>76352.50674675373</v>
-      </c>
-      <c r="F4" t="n">
-        <v>76352.50674675374</v>
       </c>
       <c r="G4" t="n">
         <v>76352.50674675373</v>
@@ -26438,25 +26438,25 @@
         <v>76352.50674675373</v>
       </c>
       <c r="I4" t="n">
-        <v>76352.5067467537</v>
+        <v>76352.50674675372</v>
       </c>
       <c r="J4" t="n">
         <v>76352.50674675373</v>
       </c>
       <c r="K4" t="n">
-        <v>76352.50674675374</v>
+        <v>76352.50674675373</v>
       </c>
       <c r="L4" t="n">
+        <v>76352.50674675372</v>
+      </c>
+      <c r="M4" t="n">
+        <v>76352.50674675372</v>
+      </c>
+      <c r="N4" t="n">
         <v>76352.50674675373</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>76352.50674675373</v>
-      </c>
-      <c r="N4" t="n">
-        <v>76352.50674675372</v>
-      </c>
-      <c r="O4" t="n">
-        <v>76352.50674675372</v>
       </c>
       <c r="P4" t="n">
         <v>76352.50674675373</v>
@@ -26478,13 +26478,13 @@
         <v>41879.94747728385</v>
       </c>
       <c r="E5" t="n">
-        <v>45530.42727093973</v>
+        <v>45530.42727093972</v>
       </c>
       <c r="F5" t="n">
-        <v>45530.42727093973</v>
+        <v>45530.42727093972</v>
       </c>
       <c r="G5" t="n">
-        <v>45530.42727093973</v>
+        <v>45530.42727093972</v>
       </c>
       <c r="H5" t="n">
         <v>45530.42727093973</v>
@@ -26499,7 +26499,7 @@
         <v>45530.42727093973</v>
       </c>
       <c r="L5" t="n">
-        <v>45530.42727093972</v>
+        <v>45530.42727093973</v>
       </c>
       <c r="M5" t="n">
         <v>45530.42727093973</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17450.06712647958</v>
+        <v>17450.06712647962</v>
       </c>
       <c r="C6" t="n">
-        <v>62936.11060723284</v>
+        <v>62936.11060723311</v>
       </c>
       <c r="D6" t="n">
-        <v>62936.11060723284</v>
+        <v>62936.11060723276</v>
       </c>
       <c r="E6" t="n">
-        <v>-249105.2673570924</v>
+        <v>-255202.5495998425</v>
       </c>
       <c r="F6" t="n">
-        <v>192356.7284528131</v>
+        <v>186259.4462100629</v>
       </c>
       <c r="G6" t="n">
-        <v>192356.728452813</v>
+        <v>186259.4462100628</v>
       </c>
       <c r="H6" t="n">
-        <v>192356.7284528129</v>
+        <v>186259.4462100629</v>
       </c>
       <c r="I6" t="n">
-        <v>192356.728452813</v>
+        <v>186259.446210063</v>
       </c>
       <c r="J6" t="n">
-        <v>156843.9455030358</v>
+        <v>150746.6632602857</v>
       </c>
       <c r="K6" t="n">
-        <v>192356.728452813</v>
+        <v>186259.4462100629</v>
       </c>
       <c r="L6" t="n">
-        <v>192356.7284528129</v>
+        <v>186259.446210063</v>
       </c>
       <c r="M6" t="n">
-        <v>72719.63944342552</v>
+        <v>66622.35720067564</v>
       </c>
       <c r="N6" t="n">
-        <v>192356.728452813</v>
+        <v>186259.4462100629</v>
       </c>
       <c r="O6" t="n">
-        <v>192356.728452813</v>
+        <v>186259.4462100629</v>
       </c>
       <c r="P6" t="n">
-        <v>192356.7284528131</v>
+        <v>186259.4462100629</v>
       </c>
     </row>
   </sheetData>
@@ -26798,13 +26798,13 @@
         <v>135.7293992974318</v>
       </c>
       <c r="E4" t="n">
-        <v>615.8063202512989</v>
+        <v>615.8063202512988</v>
       </c>
       <c r="F4" t="n">
-        <v>615.8063202512989</v>
+        <v>615.8063202512988</v>
       </c>
       <c r="G4" t="n">
-        <v>615.8063202512989</v>
+        <v>615.8063202512988</v>
       </c>
       <c r="H4" t="n">
         <v>615.8063202512989</v>
@@ -26819,7 +26819,7 @@
         <v>615.8063202512989</v>
       </c>
       <c r="L4" t="n">
-        <v>615.8063202512988</v>
+        <v>615.8063202512989</v>
       </c>
       <c r="M4" t="n">
         <v>615.8063202512989</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>480.076920953867</v>
+        <v>480.0769209538669</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>480.0769209538672</v>
+        <v>480.0769209538669</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>480.076920953867</v>
+        <v>480.0769209538669</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>270.552649221661</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
         <v>378.1144210805207</v>
@@ -27387,19 +27387,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>255.1084633975224</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>274.2802794854996</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>276.2135473829221</v>
+        <v>302.4021705621073</v>
       </c>
       <c r="H2" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>35.35962750586017</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>49.6272863185178</v>
       </c>
       <c r="T2" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>116.6070836257141</v>
       </c>
       <c r="V2" t="n">
         <v>333.6094813630181</v>
@@ -27466,16 +27466,16 @@
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>122.5632145934811</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
         <v>67.69846245683961</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>15.54209281995534</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>155.9458157924986</v>
       </c>
       <c r="V3" t="n">
-        <v>226.1116663261494</v>
+        <v>90.38226702871759</v>
       </c>
       <c r="W3" t="n">
-        <v>238.9027100790231</v>
+        <v>103.1733107815913</v>
       </c>
       <c r="X3" t="n">
-        <v>195.9378182409833</v>
+        <v>60.20841894355158</v>
       </c>
       <c r="Y3" t="n">
-        <v>54.86671378948517</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="4">
@@ -27542,22 +27542,22 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
-        <v>15.81177494308312</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>15.22644912704888</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
         <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>22.04951947108714</v>
       </c>
       <c r="I4" t="n">
-        <v>23.21055905217034</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
         <v>59.456666199969</v>
@@ -27581,22 +27581,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>148.0265635717656</v>
+        <v>66.62807660343552</v>
       </c>
       <c r="S4" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>95.11776435504618</v>
       </c>
       <c r="U4" t="n">
-        <v>284.3183371157911</v>
+        <v>148.5889378183593</v>
       </c>
       <c r="V4" t="n">
-        <v>122.3985520997298</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
         <v>283.2948374677749</v>
@@ -27618,16 +27618,16 @@
         <v>254.3737048254072</v>
       </c>
       <c r="C5" t="n">
-        <v>242.3850217830889</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>255.1084633975224</v>
       </c>
       <c r="F5" t="n">
-        <v>302.4021705621073</v>
+        <v>392.1340742012125</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>185.3566856159496</v>
@@ -27694,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157.8252483534483</v>
+        <v>22.0958490560165</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0866360314548</v>
+        <v>24.35723673402308</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>1.720851342258271</v>
       </c>
       <c r="E6" t="n">
         <v>145.5577298436975</v>
@@ -27742,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>15.54209281995534</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>126.4342241105004</v>
       </c>
       <c r="U6" t="n">
-        <v>80.58044518024116</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
-        <v>90.38226702871759</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>119.3522551778451</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
         <v>195.9378182409833</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.719814997536</v>
+        <v>159.7779942291752</v>
       </c>
       <c r="C7" t="n">
-        <v>167.9198098429365</v>
+        <v>32.19041054550473</v>
       </c>
       <c r="D7" t="n">
-        <v>151.5411742405149</v>
+        <v>15.81177494308312</v>
       </c>
       <c r="E7" t="n">
         <v>150.4889240962943</v>
@@ -27794,7 +27794,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
-        <v>120.8191931849874</v>
+        <v>7.031614655916485</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>12.2971642743338</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
-        <v>75.84326567291754</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>95.11776435504618</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
         <v>284.3183371157911</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>254.3737048254071</v>
+        <v>382.2371783240515</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
@@ -27864,16 +27864,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>274.2802794854995</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>221.8855534378398</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>35.35962750586012</v>
+        <v>35.35962750586017</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>49.6272863185178</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
@@ -27918,7 +27918,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>242.4804397762898</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.8252483534483</v>
+        <v>22.0958490560165</v>
       </c>
       <c r="C9" t="n">
         <v>160.0866360314548</v>
@@ -27943,13 +27943,13 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>47.08648643443063</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27979,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>111.1442819220986</v>
+        <v>15.54209281995534</v>
       </c>
       <c r="T9" t="n">
         <v>186.7982527956746</v>
@@ -28000,7 +28000,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
-        <v>190.5961130869169</v>
+        <v>54.86671378948517</v>
       </c>
     </row>
     <row r="10">
@@ -28016,22 +28016,22 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>151.5411742405149</v>
+        <v>129.599353472154</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>14.75952479886257</v>
       </c>
       <c r="F10" t="n">
-        <v>90.86205972327213</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>31.50115184839666</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>22.04951947108708</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>7.031614655916428</v>
+        <v>7.031614655916485</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>12.2971642743338</v>
       </c>
       <c r="S10" t="n">
         <v>211.5726649703493</v>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>72.72580229576329</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34710,16 +34710,16 @@
         <v>135.7293992974318</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>130.2453831642022</v>
+      </c>
+      <c r="P2" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="O2" t="n">
-        <v>97.8628653309848</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>95.38611483488586</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="L3" t="n">
-        <v>130.2453831642022</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>69.38260888833734</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="M5" t="n">
-        <v>135.7293992974318</v>
+        <v>57.51958086843889</v>
       </c>
       <c r="N5" t="n">
-        <v>34.85926832931631</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="Q5" t="n">
-        <v>95.38611483488586</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35023,13 +35023,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>69.38260888833736</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="N6" t="n">
-        <v>130.2453831642022</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>135.7293992974318</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>34.85926832931629</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>130.2453831642023</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>135.7293992974318</v>
@@ -35193,7 +35193,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>69.38260888833734</v>
       </c>
       <c r="O9" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="Q9" t="n">
-        <v>69.38260888833746</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>199.3364643846402</v>
       </c>
       <c r="K11" t="n">
         <v>432.3225944113603</v>
       </c>
       <c r="L11" t="n">
-        <v>586.8091613896873</v>
+        <v>387.2641088400292</v>
       </c>
       <c r="M11" t="n">
-        <v>615.8063202512989</v>
+        <v>74.78244064814214</v>
       </c>
       <c r="N11" t="n">
-        <v>290.0654967950672</v>
+        <v>79.7790838798594</v>
       </c>
       <c r="O11" t="n">
-        <v>64.38878344376809</v>
+        <v>559.429019085337</v>
       </c>
       <c r="P11" t="n">
         <v>444.9774422536144</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>256.4786450418133</v>
       </c>
       <c r="R11" t="n">
         <v>3.974419015902001</v>
@@ -35494,22 +35494,22 @@
         <v>360.6936788659527</v>
       </c>
       <c r="L12" t="n">
-        <v>60.72640799809486</v>
+        <v>542.8188568925918</v>
       </c>
       <c r="M12" t="n">
-        <v>221.2223001856042</v>
+        <v>403.9029935552205</v>
       </c>
       <c r="N12" t="n">
-        <v>615.8063202512989</v>
+        <v>615.8063202512988</v>
       </c>
       <c r="O12" t="n">
-        <v>586.0636975385617</v>
+        <v>74.04268247881325</v>
       </c>
       <c r="P12" t="n">
-        <v>457.5605954750548</v>
+        <v>43.55899624313646</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>261.2494720275529</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>199.3364643846402</v>
       </c>
       <c r="K14" t="n">
         <v>432.3225944113603</v>
       </c>
       <c r="L14" t="n">
-        <v>43.84958247410179</v>
+        <v>387.2641088400292</v>
       </c>
       <c r="M14" t="n">
-        <v>615.8063202512989</v>
+        <v>74.78244064814214</v>
       </c>
       <c r="N14" t="n">
-        <v>615.8063202512989</v>
+        <v>79.7790838798594</v>
       </c>
       <c r="O14" t="n">
         <v>559.429019085337</v>
       </c>
       <c r="P14" t="n">
-        <v>26.63912163068696</v>
+        <v>444.9774422536144</v>
       </c>
       <c r="Q14" t="n">
-        <v>140.5168404407128</v>
+        <v>256.4786450418133</v>
       </c>
       <c r="R14" t="n">
         <v>3.974419015902001</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>136.2712172461316</v>
       </c>
       <c r="K15" t="n">
         <v>360.6936788659527</v>
       </c>
       <c r="L15" t="n">
-        <v>60.72640799809486</v>
+        <v>542.8188568925918</v>
       </c>
       <c r="M15" t="n">
-        <v>615.8063202512989</v>
+        <v>86.75117242987903</v>
       </c>
       <c r="N15" t="n">
-        <v>615.8063202512989</v>
+        <v>100.8724945895893</v>
       </c>
       <c r="O15" t="n">
-        <v>327.7508947189983</v>
+        <v>492.126730033946</v>
       </c>
       <c r="P15" t="n">
         <v>457.5605954750548</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>261.2494720275529</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>199.3364643846402</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>432.3225944113603</v>
       </c>
       <c r="L17" t="n">
-        <v>43.84958247410179</v>
+        <v>586.8091613896873</v>
       </c>
       <c r="M17" t="n">
-        <v>615.8063202512989</v>
+        <v>78.54827149902609</v>
       </c>
       <c r="N17" t="n">
-        <v>615.8063202512989</v>
+        <v>79.7790838798594</v>
       </c>
       <c r="O17" t="n">
-        <v>64.38878344376809</v>
+        <v>559.429019085337</v>
       </c>
       <c r="P17" t="n">
         <v>444.9774422536144</v>
       </c>
       <c r="Q17" t="n">
-        <v>21.85671009061581</v>
+        <v>256.4786450418133</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>136.2712172461316</v>
       </c>
       <c r="K18" t="n">
-        <v>16.8888707496005</v>
+        <v>360.6936788659527</v>
       </c>
       <c r="L18" t="n">
         <v>542.8188568925918</v>
       </c>
       <c r="M18" t="n">
-        <v>615.8063202512989</v>
+        <v>406.8158041571816</v>
       </c>
       <c r="N18" t="n">
-        <v>371.9580038579561</v>
+        <v>100.8724945895893</v>
       </c>
       <c r="O18" t="n">
         <v>586.0636975385617</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>199.3364643846402</v>
       </c>
       <c r="K20" t="n">
         <v>432.3225944113603</v>
       </c>
       <c r="L20" t="n">
-        <v>586.8091613896873</v>
+        <v>341.2804648784418</v>
       </c>
       <c r="M20" t="n">
-        <v>74.78244064814214</v>
+        <v>615.8063202512989</v>
       </c>
       <c r="N20" t="n">
-        <v>340.0235597725572</v>
+        <v>79.7790838798594</v>
       </c>
       <c r="O20" t="n">
-        <v>559.429019085337</v>
+        <v>64.38878344376809</v>
       </c>
       <c r="P20" t="n">
         <v>444.9774422536144</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>256.4786450418133</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>3.974419015902001</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,19 +36202,19 @@
         <v>136.2712172461316</v>
       </c>
       <c r="K21" t="n">
-        <v>16.8888707496005</v>
+        <v>360.6936788659527</v>
       </c>
       <c r="L21" t="n">
         <v>542.8188568925918</v>
       </c>
       <c r="M21" t="n">
-        <v>336.6190130416161</v>
+        <v>86.75117242987903</v>
       </c>
       <c r="N21" t="n">
         <v>100.8724945895893</v>
       </c>
       <c r="O21" t="n">
-        <v>586.0636975385617</v>
+        <v>492.1267300339464</v>
       </c>
       <c r="P21" t="n">
         <v>457.5605954750548</v>
@@ -36363,10 +36363,10 @@
         <v>432.3225944113603</v>
       </c>
       <c r="L23" t="n">
-        <v>391.2385278559317</v>
+        <v>521.0571949016137</v>
       </c>
       <c r="M23" t="n">
-        <v>74.78244064814214</v>
+        <v>615.8063202512989</v>
       </c>
       <c r="N23" t="n">
         <v>79.7790838798594</v>
@@ -36375,13 +36375,13 @@
         <v>559.429019085337</v>
       </c>
       <c r="P23" t="n">
-        <v>444.9774422536144</v>
+        <v>26.63912163068696</v>
       </c>
       <c r="Q23" t="n">
-        <v>256.4786450418133</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>3.974419015902001</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>16.8888707496005</v>
       </c>
       <c r="L24" t="n">
-        <v>542.8188568925918</v>
+        <v>399.9027669290392</v>
       </c>
       <c r="M24" t="n">
         <v>615.8063202512989</v>
       </c>
       <c r="N24" t="n">
-        <v>615.8063202512989</v>
+        <v>100.8724945895893</v>
       </c>
       <c r="O24" t="n">
-        <v>189.4632539408521</v>
+        <v>586.0636975385617</v>
       </c>
       <c r="P24" t="n">
         <v>457.5605954750548</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>261.2494720275529</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>199.3364643846402</v>
       </c>
       <c r="K26" t="n">
-        <v>10.93355806884614</v>
+        <v>432.3225944113603</v>
       </c>
       <c r="L26" t="n">
-        <v>586.8091613896873</v>
+        <v>43.84958247410179</v>
       </c>
       <c r="M26" t="n">
-        <v>615.8063202512989</v>
+        <v>74.78244064814214</v>
       </c>
       <c r="N26" t="n">
-        <v>615.8063202512989</v>
+        <v>427.1680292616892</v>
       </c>
       <c r="O26" t="n">
         <v>559.429019085337</v>
       </c>
       <c r="P26" t="n">
-        <v>26.63912163068696</v>
+        <v>444.9774422536144</v>
       </c>
       <c r="Q26" t="n">
-        <v>22.92071688354342</v>
+        <v>256.4786450418133</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36679,22 +36679,22 @@
         <v>360.6936788659527</v>
       </c>
       <c r="L27" t="n">
-        <v>542.8188568925918</v>
+        <v>448.8818893879767</v>
       </c>
       <c r="M27" t="n">
-        <v>251.1508663508556</v>
+        <v>86.75117242987903</v>
       </c>
       <c r="N27" t="n">
-        <v>615.8063202512989</v>
+        <v>100.8724945895893</v>
       </c>
       <c r="O27" t="n">
-        <v>74.04268247881325</v>
+        <v>586.0636975385617</v>
       </c>
       <c r="P27" t="n">
         <v>457.5605954750548</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>261.2494720275529</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>199.3364643846402</v>
       </c>
       <c r="K29" t="n">
         <v>432.3225944113603</v>
       </c>
       <c r="L29" t="n">
-        <v>472.88607649206</v>
+        <v>387.2641088400296</v>
       </c>
       <c r="M29" t="n">
         <v>74.78244064814214</v>
       </c>
       <c r="N29" t="n">
-        <v>615.8063202512989</v>
+        <v>79.7790838798594</v>
       </c>
       <c r="O29" t="n">
         <v>559.429019085337</v>
       </c>
       <c r="P29" t="n">
-        <v>26.63912163068696</v>
+        <v>444.9774422536144</v>
       </c>
       <c r="Q29" t="n">
         <v>256.4786450418133</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>3.974419015902001</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>17.40115563421036</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>16.8888707496005</v>
+        <v>135.2222528136023</v>
       </c>
       <c r="L30" t="n">
         <v>542.8188568925918</v>
@@ -36922,13 +36922,13 @@
         <v>615.8063202512989</v>
       </c>
       <c r="N30" t="n">
-        <v>615.8063202512989</v>
+        <v>100.8724945895893</v>
       </c>
       <c r="O30" t="n">
         <v>586.0636975385617</v>
       </c>
       <c r="P30" t="n">
-        <v>43.55899624313646</v>
+        <v>457.5605954750548</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>432.3225944113603</v>
+        <v>10.93355806884614</v>
       </c>
       <c r="L32" t="n">
         <v>586.8091613896873</v>
       </c>
       <c r="M32" t="n">
-        <v>74.78244064814214</v>
+        <v>615.8063202512989</v>
       </c>
       <c r="N32" t="n">
-        <v>497.9088163377691</v>
+        <v>615.8063202512989</v>
       </c>
       <c r="O32" t="n">
         <v>559.429019085337</v>
       </c>
       <c r="P32" t="n">
-        <v>26.63912163068696</v>
+        <v>49.55983851423022</v>
       </c>
       <c r="Q32" t="n">
-        <v>256.4786450418133</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>3.974419015902001</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>136.2712172461316</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>360.6936788659527</v>
+        <v>34.29002638380948</v>
       </c>
       <c r="L33" t="n">
-        <v>448.8818893879762</v>
+        <v>542.8188568925918</v>
       </c>
       <c r="M33" t="n">
-        <v>86.75117242987903</v>
+        <v>615.8063202512989</v>
       </c>
       <c r="N33" t="n">
-        <v>100.8724945895893</v>
+        <v>615.8063202512989</v>
       </c>
       <c r="O33" t="n">
         <v>586.0636975385617</v>
       </c>
       <c r="P33" t="n">
-        <v>457.5605954750548</v>
+        <v>43.55899624313646</v>
       </c>
       <c r="Q33" t="n">
-        <v>261.2494720275529</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>10.93355806884614</v>
+        <v>106.5817709551287</v>
       </c>
       <c r="L35" t="n">
         <v>586.8091613896873</v>
@@ -37320,16 +37320,16 @@
         <v>615.8063202512989</v>
       </c>
       <c r="O35" t="n">
-        <v>559.429019085337</v>
+        <v>64.38878344376809</v>
       </c>
       <c r="P35" t="n">
-        <v>26.63912163068696</v>
+        <v>444.9774422536144</v>
       </c>
       <c r="Q35" t="n">
-        <v>22.92071688354342</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>3.974419015902001</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>132.4547042237119</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>16.8888707496005</v>
@@ -37393,19 +37393,19 @@
         <v>542.8188568925918</v>
       </c>
       <c r="M36" t="n">
-        <v>86.75117242987903</v>
+        <v>615.8063202512989</v>
       </c>
       <c r="N36" t="n">
-        <v>615.8063202512989</v>
+        <v>100.8724945895893</v>
       </c>
       <c r="O36" t="n">
         <v>586.0636975385617</v>
       </c>
       <c r="P36" t="n">
-        <v>457.5605954750548</v>
+        <v>314.6445055115034</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>261.2494720275529</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>10.93355806884614</v>
       </c>
       <c r="L38" t="n">
-        <v>43.84958247410179</v>
+        <v>586.8091613896873</v>
       </c>
       <c r="M38" t="n">
         <v>615.8063202512989</v>
@@ -37557,10 +37557,10 @@
         <v>615.8063202512989</v>
       </c>
       <c r="O38" t="n">
-        <v>446.517930203823</v>
+        <v>64.38878344376809</v>
       </c>
       <c r="P38" t="n">
-        <v>444.9774422536144</v>
+        <v>284.1470100980839</v>
       </c>
       <c r="Q38" t="n">
         <v>256.4786450418133</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>17.40115563421036</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>16.8888707496005</v>
+        <v>135.2222528136023</v>
       </c>
       <c r="L39" t="n">
         <v>542.8188568925918</v>
@@ -37633,13 +37633,13 @@
         <v>615.8063202512989</v>
       </c>
       <c r="N39" t="n">
-        <v>615.8063202512989</v>
+        <v>100.8724945895893</v>
       </c>
       <c r="O39" t="n">
         <v>586.0636975385617</v>
       </c>
       <c r="P39" t="n">
-        <v>43.55899624313646</v>
+        <v>457.5605954750548</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>199.3364643846402</v>
+        <v>18.94629786764118</v>
       </c>
       <c r="K41" t="n">
-        <v>432.3225944113603</v>
+        <v>10.93355806884614</v>
       </c>
       <c r="L41" t="n">
-        <v>391.2385278559317</v>
+        <v>586.8091613896873</v>
       </c>
       <c r="M41" t="n">
-        <v>74.78244064814214</v>
+        <v>615.8063202512989</v>
       </c>
       <c r="N41" t="n">
-        <v>79.7790838798594</v>
+        <v>615.8063202512989</v>
       </c>
       <c r="O41" t="n">
         <v>559.429019085337</v>
       </c>
       <c r="P41" t="n">
-        <v>444.9774422536144</v>
+        <v>26.63912163068696</v>
       </c>
       <c r="Q41" t="n">
-        <v>256.4786450418133</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>3.974419015902001</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>360.6936788659527</v>
+        <v>135.2222528136023</v>
       </c>
       <c r="L42" t="n">
         <v>542.8188568925918</v>
@@ -37870,16 +37870,16 @@
         <v>615.8063202512989</v>
       </c>
       <c r="N42" t="n">
-        <v>126.172611569434</v>
+        <v>100.8724945895893</v>
       </c>
       <c r="O42" t="n">
-        <v>74.04268247881325</v>
+        <v>586.0636975385617</v>
       </c>
       <c r="P42" t="n">
         <v>457.5605954750548</v>
       </c>
       <c r="Q42" t="n">
-        <v>261.2494720275529</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>199.3364643846402</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>432.3225944113603</v>
+        <v>10.93355806884614</v>
       </c>
       <c r="L44" t="n">
-        <v>387.2641088400296</v>
+        <v>586.8091613896873</v>
       </c>
       <c r="M44" t="n">
-        <v>74.78244064814214</v>
+        <v>615.8063202512989</v>
       </c>
       <c r="N44" t="n">
-        <v>79.7790838798594</v>
+        <v>615.8063202512989</v>
       </c>
       <c r="O44" t="n">
         <v>559.429019085337</v>
       </c>
       <c r="P44" t="n">
-        <v>444.9774422536144</v>
+        <v>45.58541949832814</v>
       </c>
       <c r="Q44" t="n">
-        <v>256.4786450418133</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>3.974419015902001</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>136.2712172461316</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>360.6936788659527</v>
+        <v>34.29002638381085</v>
       </c>
       <c r="L45" t="n">
         <v>542.8188568925918</v>
       </c>
       <c r="M45" t="n">
-        <v>86.75117242987903</v>
+        <v>615.8063202512989</v>
       </c>
       <c r="N45" t="n">
-        <v>100.8724945895893</v>
+        <v>615.8063202512989</v>
       </c>
       <c r="O45" t="n">
-        <v>492.1267300339464</v>
+        <v>586.0636975385617</v>
       </c>
       <c r="P45" t="n">
-        <v>457.5605954750548</v>
+        <v>43.55899624313646</v>
       </c>
       <c r="Q45" t="n">
-        <v>261.2494720275529</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
